--- a/time_data.xlsx
+++ b/time_data.xlsx
@@ -580,88 +580,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2317251494.346056</v>
+        <v>1297027045.000659</v>
       </c>
       <c r="C2" t="n">
-        <v>189937.2417894558</v>
+        <v>189908.1959042078</v>
       </c>
       <c r="D2" t="n">
-        <v>92850.47491430138</v>
+        <v>96254.82575384334</v>
       </c>
       <c r="E2" t="n">
-        <v>300.0000002878098</v>
+        <v>300.0000000489011</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
       </c>
       <c r="G2" t="n">
-        <v>215797.7892538844</v>
+        <v>138521.1275522048</v>
       </c>
       <c r="H2" t="n">
-        <v>918293074.0619024</v>
+        <v>933943643.9228593</v>
       </c>
       <c r="I2" t="n">
-        <v>1819216060.243691</v>
+        <v>1873247140.517883</v>
       </c>
       <c r="J2" t="n">
-        <v>7999.99987403745</v>
+        <v>7999.999967641432</v>
       </c>
       <c r="K2" t="n">
-        <v>201.5132655599599</v>
+        <v>272.2979777095209</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>196.9962087487812</v>
+        <v>221.2196795818502</v>
       </c>
       <c r="N2" t="n">
-        <v>1056454578.665266</v>
+        <v>1111985350.843881</v>
       </c>
       <c r="O2" t="n">
-        <v>201.3082012445581</v>
+        <v>272.3165867818892</v>
       </c>
       <c r="P2" t="n">
-        <v>204.9906957769819</v>
+        <v>276.534861810195</v>
       </c>
       <c r="Q2" t="n">
-        <v>-8000.000027557861</v>
+        <v>-7999.999999994827</v>
       </c>
       <c r="R2" t="n">
         <v>-0</v>
       </c>
       <c r="S2" t="n">
-        <v>350.0892231287274</v>
+        <v>353.1673862612304</v>
       </c>
       <c r="T2" t="n">
-        <v>-2650644520.85975</v>
+        <v>-2767692569.521341</v>
       </c>
       <c r="U2" t="n">
-        <v>-232626.1680657571</v>
+        <v>-233214.4521268219</v>
       </c>
       <c r="V2" t="n">
-        <v>-3583745439.078795</v>
+        <v>-3701336992.471466</v>
       </c>
       <c r="W2" t="n">
-        <v>-829826934.5461514</v>
+        <v>1479927541.079901</v>
       </c>
       <c r="X2" t="n">
-        <v>-136188.1876510239</v>
+        <v>-118523.4505256156</v>
       </c>
       <c r="Y2" t="n">
-        <v>-53854.30590615669</v>
+        <v>93248.66624692168</v>
       </c>
       <c r="Z2" t="n">
-        <v>-2098293189.878148</v>
+        <v>-1881210649.109666</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.4259498044725</v>
+        <v>221.2587490695226</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.4114337954651</v>
+        <v>219.5843591729281</v>
       </c>
       <c r="AC2" t="n">
-        <v>775145486203.6602</v>
+        <v>7.722145223759891e+23</v>
       </c>
     </row>
     <row r="3">
@@ -669,88 +669,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1631586383.94837</v>
+        <v>1645982130.230763</v>
       </c>
       <c r="C3" t="n">
-        <v>189936.2447794033</v>
+        <v>189908.2060337035</v>
       </c>
       <c r="D3" t="n">
-        <v>92803.49146656365</v>
+        <v>95470.51147283516</v>
       </c>
       <c r="E3" t="n">
-        <v>300.0000018004081</v>
+        <v>299.999999981775</v>
       </c>
       <c r="F3" t="n">
         <v>0.009000000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>168854.8984154305</v>
+        <v>166418.3615688094</v>
       </c>
       <c r="H3" t="n">
-        <v>889409275.137886</v>
+        <v>941723796.6285449</v>
       </c>
       <c r="I3" t="n">
-        <v>1820098545.930313</v>
+        <v>1873298137.274274</v>
       </c>
       <c r="J3" t="n">
-        <v>7999.998823018338</v>
+        <v>8000.000033924632</v>
       </c>
       <c r="K3" t="n">
-        <v>202.2518453790846</v>
+        <v>272.7885322911192</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>194.9359723823331</v>
+        <v>220.7810576771143</v>
       </c>
       <c r="N3" t="n">
-        <v>1057363255.626986</v>
+        <v>1112037637.998407</v>
       </c>
       <c r="O3" t="n">
-        <v>202.0645668135031</v>
+        <v>272.6808233917222</v>
       </c>
       <c r="P3" t="n">
-        <v>206.1498993331786</v>
+        <v>276.6032340211499</v>
       </c>
       <c r="Q3" t="n">
-        <v>-7999.998447670151</v>
+        <v>-7999.99989330403</v>
       </c>
       <c r="R3" t="n">
         <v>-0</v>
       </c>
       <c r="S3" t="n">
-        <v>350.0957018122743</v>
+        <v>353.1617010469548</v>
       </c>
       <c r="T3" t="n">
-        <v>-2649305769.811857</v>
+        <v>-2767201152.7618</v>
       </c>
       <c r="U3" t="n">
-        <v>-232592.1526684044</v>
+        <v>-233207.0334469421</v>
       </c>
       <c r="V3" t="n">
-        <v>-3582308668.340964</v>
+        <v>-3700826408.730254</v>
       </c>
       <c r="W3" t="n">
-        <v>-830883174.4588933</v>
+        <v>1496800860.59791</v>
       </c>
       <c r="X3" t="n">
-        <v>-136079.952974867</v>
+        <v>-119608.2516985398</v>
       </c>
       <c r="Y3" t="n">
-        <v>-53940.9391817119</v>
+        <v>94325.53623310896</v>
       </c>
       <c r="Z3" t="n">
-        <v>-2095919688.262803</v>
+        <v>-1898310027.159961</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.3554322763934</v>
+        <v>220.8504964416311</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.345431967692</v>
+        <v>219.1610313921791</v>
       </c>
       <c r="AC3" t="n">
-        <v>775145486287.5508</v>
+        <v>7.722145223759891e+23</v>
       </c>
     </row>
     <row r="4">
@@ -758,88 +758,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1604059124.016988</v>
+        <v>1644917320.907195</v>
       </c>
       <c r="C4" t="n">
-        <v>189935.7344393365</v>
+        <v>189908.2202427622</v>
       </c>
       <c r="D4" t="n">
-        <v>94398.93365936888</v>
+        <v>96260.00061817723</v>
       </c>
       <c r="E4" t="n">
-        <v>300.0000005874508</v>
+        <v>300.0000000644068</v>
       </c>
       <c r="F4" t="n">
         <v>0.07300000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>167065.0977673955</v>
+        <v>166479.9749168757</v>
       </c>
       <c r="H4" t="n">
-        <v>905150370.9321629</v>
+        <v>949912913.4826626</v>
       </c>
       <c r="I4" t="n">
-        <v>1820602644.861518</v>
+        <v>1873463745.067264</v>
       </c>
       <c r="J4" t="n">
-        <v>7999.999615981191</v>
+        <v>7999.999957407374</v>
       </c>
       <c r="K4" t="n">
-        <v>202.8279396903203</v>
+        <v>272.9807636562442</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>193.9613754974169</v>
+        <v>220.575741031519</v>
       </c>
       <c r="N4" t="n">
-        <v>1057882087.686979</v>
+        <v>1112207508.577508</v>
       </c>
       <c r="O4" t="n">
-        <v>202.6608535136268</v>
+        <v>272.876353186094</v>
       </c>
       <c r="P4" t="n">
-        <v>206.8121385248823</v>
+        <v>276.8254530205039</v>
       </c>
       <c r="Q4" t="n">
-        <v>-7999.999659450476</v>
+        <v>-7999.999985294733</v>
       </c>
       <c r="R4" t="n">
         <v>-0</v>
       </c>
       <c r="S4" t="n">
-        <v>350.0952730663429</v>
+        <v>353.1618869253905</v>
       </c>
       <c r="T4" t="n">
-        <v>-2648579801.344004</v>
+        <v>-2767055073.942044</v>
       </c>
       <c r="U4" t="n">
-        <v>-232576.2765035204</v>
+        <v>-233203.5277355732</v>
       </c>
       <c r="V4" t="n">
-        <v>-3581538177.684481</v>
+        <v>-3700670153.738045</v>
       </c>
       <c r="W4" t="n">
-        <v>-826785770.9722446</v>
+        <v>1498809136.446676</v>
       </c>
       <c r="X4" t="n">
-        <v>-136324.4035379323</v>
+        <v>-119735.6563586566</v>
       </c>
       <c r="Y4" t="n">
-        <v>-53683.17275739933</v>
+        <v>94454.80686500913</v>
       </c>
       <c r="Z4" t="n">
-        <v>-2099379127.45653</v>
+        <v>-1900282586.169222</v>
       </c>
       <c r="AA4" t="n">
-        <v>193.4092105531712</v>
+        <v>220.6487798244965</v>
       </c>
       <c r="AB4" t="n">
-        <v>187.38843466268</v>
+        <v>218.9575523817223</v>
       </c>
       <c r="AC4" t="n">
-        <v>775145486963.3281</v>
+        <v>7.722145223759891e+23</v>
       </c>
     </row>
     <row r="5">
@@ -847,88 +847,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1603775300.120761</v>
+        <v>1645170139.170538</v>
       </c>
       <c r="C5" t="n">
-        <v>189935.5495830119</v>
+        <v>189908.2278313532</v>
       </c>
       <c r="D5" t="n">
-        <v>94461.62563063759</v>
+        <v>96295.82086538308</v>
       </c>
       <c r="E5" t="n">
-        <v>300.0000000826657</v>
+        <v>300.0000000098802</v>
       </c>
       <c r="F5" t="n">
         <v>0.585</v>
       </c>
       <c r="G5" t="n">
-        <v>167052.5105564496</v>
+        <v>166516.7017459125</v>
       </c>
       <c r="H5" t="n">
-        <v>905808790.1961393</v>
+        <v>950265050.5291371</v>
       </c>
       <c r="I5" t="n">
-        <v>1820791704.389833</v>
+        <v>1873528615.998589</v>
       </c>
       <c r="J5" t="n">
-        <v>7999.999945961353</v>
+        <v>7999.999993464632</v>
       </c>
       <c r="K5" t="n">
-        <v>203.0719975837895</v>
+        <v>273.063798160397</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>193.7590139369161</v>
+        <v>220.5445874017003</v>
       </c>
       <c r="N5" t="n">
-        <v>1058076649.024841</v>
+        <v>1112274041.248726</v>
       </c>
       <c r="O5" t="n">
-        <v>202.9059849843209</v>
+        <v>272.9613909196758</v>
       </c>
       <c r="P5" t="n">
-        <v>207.0605694821174</v>
+        <v>276.9124917327899</v>
       </c>
       <c r="Q5" t="n">
-        <v>-7999.99993770141</v>
+        <v>-7999.9999743909</v>
       </c>
       <c r="R5" t="n">
         <v>-0</v>
       </c>
       <c r="S5" t="n">
-        <v>350.101562910639</v>
+        <v>353.166491136406</v>
       </c>
       <c r="T5" t="n">
-        <v>-2648624350.920724</v>
+        <v>-2767174074.896894</v>
       </c>
       <c r="U5" t="n">
-        <v>-232573.2163684057</v>
+        <v>-233203.0765603946</v>
       </c>
       <c r="V5" t="n">
-        <v>-3581571985.580157</v>
+        <v>-3700786047.076044</v>
       </c>
       <c r="W5" t="n">
-        <v>-826669707.2514216</v>
+        <v>1499067321.512793</v>
       </c>
       <c r="X5" t="n">
-        <v>-136327.3110542829</v>
+        <v>-119737.6215971767</v>
       </c>
       <c r="Y5" t="n">
-        <v>-53675.12903805562</v>
+        <v>94467.99899499978</v>
       </c>
       <c r="Z5" t="n">
-        <v>-2099490354.35331</v>
+        <v>-1900378065.737215</v>
       </c>
       <c r="AA5" t="n">
-        <v>193.2072123091995</v>
+        <v>220.617680411325</v>
       </c>
       <c r="AB5" t="n">
-        <v>187.1868802110915</v>
+        <v>218.9265234284707</v>
       </c>
       <c r="AC5" t="n">
-        <v>775145492344.3655</v>
+        <v>7.722145223759891e+23</v>
       </c>
     </row>
     <row r="6">
@@ -936,88 +936,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1602887436.570623</v>
+        <v>1645444306.131836</v>
       </c>
       <c r="C6" t="n">
-        <v>189935.1688731952</v>
+        <v>189908.2609386576</v>
       </c>
       <c r="D6" t="n">
-        <v>94715.5931223314</v>
+        <v>96427.97785452945</v>
       </c>
       <c r="E6" t="n">
-        <v>300.0000000105363</v>
+        <v>300.0000000047032</v>
       </c>
       <c r="F6" t="n">
         <v>4.681</v>
       </c>
       <c r="G6" t="n">
-        <v>166998.8321032609</v>
+        <v>166586.3543662303</v>
       </c>
       <c r="H6" t="n">
-        <v>908302147.5441524</v>
+        <v>951584183.0906632</v>
       </c>
       <c r="I6" t="n">
-        <v>1821178634.369249</v>
+        <v>1873800028.376393</v>
       </c>
       <c r="J6" t="n">
-        <v>7999.999993111905</v>
+        <v>7999.999996889042</v>
       </c>
       <c r="K6" t="n">
-        <v>203.5723346870493</v>
+        <v>273.4153016802235</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>193.6694465313547</v>
+        <v>220.5414990789908</v>
       </c>
       <c r="N6" t="n">
-        <v>1058474854.91756</v>
+        <v>1112552403.032818</v>
       </c>
       <c r="O6" t="n">
-        <v>203.4015407595845</v>
+        <v>273.3183047427315</v>
       </c>
       <c r="P6" t="n">
-        <v>207.5692576372321</v>
+        <v>277.2767334654822</v>
       </c>
       <c r="Q6" t="n">
-        <v>-7999.999999999098</v>
+        <v>-7999.999999998229</v>
       </c>
       <c r="R6" t="n">
         <v>-0</v>
       </c>
       <c r="S6" t="n">
-        <v>350.1300038428533</v>
+        <v>353.1940852639729</v>
       </c>
       <c r="T6" t="n">
-        <v>-2649438973.113223</v>
+        <v>-2768023857.480707</v>
       </c>
       <c r="U6" t="n">
-        <v>-232573.0099645399</v>
+        <v>-233203.5400824409</v>
       </c>
       <c r="V6" t="n">
-        <v>-3582376365.069177</v>
+        <v>-3701626342.739389</v>
       </c>
       <c r="W6" t="n">
-        <v>-826646436.0869242</v>
+        <v>1500464993.698197</v>
       </c>
       <c r="X6" t="n">
-        <v>-136326.4075821837</v>
+        <v>-119737.8590214432</v>
       </c>
       <c r="Y6" t="n">
-        <v>-53663.61433382841</v>
+        <v>94534.87195094963</v>
       </c>
       <c r="Z6" t="n">
-        <v>-2100006689.759752</v>
+        <v>-1900810521.426124</v>
       </c>
       <c r="AA6" t="n">
-        <v>193.1171189166512</v>
+        <v>220.61456422708</v>
       </c>
       <c r="AB6" t="n">
-        <v>187.0992810728154</v>
+        <v>218.9239817853552</v>
       </c>
       <c r="AC6" t="n">
-        <v>775145535750.2645</v>
+        <v>7.72214522375989e+23</v>
       </c>
     </row>
     <row r="7">
@@ -1025,88 +1025,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1600039136.167576</v>
+        <v>1642980084.619646</v>
       </c>
       <c r="C7" t="n">
-        <v>189934.2809357249</v>
+        <v>189908.3509347228</v>
       </c>
       <c r="D7" t="n">
-        <v>95122.20494596285</v>
+        <v>96780.58074503051</v>
       </c>
       <c r="E7" t="n">
-        <v>299.9999999999999</v>
+        <v>300.0000000000334</v>
       </c>
       <c r="F7" t="n">
         <v>37.449</v>
       </c>
       <c r="G7" t="n">
-        <v>166689.658785337</v>
+        <v>166351.1456465436</v>
       </c>
       <c r="H7" t="n">
-        <v>912514974.2822899</v>
+        <v>955226709.237596</v>
       </c>
       <c r="I7" t="n">
-        <v>1822045038.290514</v>
+        <v>1874360593.759197</v>
       </c>
       <c r="J7" t="n">
-        <v>8000.000000000568</v>
+        <v>7999.999999981207</v>
       </c>
       <c r="K7" t="n">
-        <v>204.7157208883407</v>
+        <v>274.1671828708687</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>193.4002679400628</v>
+        <v>220.5203778940393</v>
       </c>
       <c r="N7" t="n">
-        <v>1059366643.260272</v>
+        <v>1113127244.173966</v>
       </c>
       <c r="O7" t="n">
-        <v>204.5221200481187</v>
+        <v>274.0546248564323</v>
       </c>
       <c r="P7" t="n">
-        <v>208.7093962842403</v>
+        <v>278.0292754065688</v>
       </c>
       <c r="Q7" t="n">
-        <v>-7999.999999999921</v>
+        <v>-7999.999999950292</v>
       </c>
       <c r="R7" t="n">
         <v>-0</v>
       </c>
       <c r="S7" t="n">
-        <v>350.1705844431311</v>
+        <v>353.311958384172</v>
       </c>
       <c r="T7" t="n">
-        <v>-2650494920.453845</v>
+        <v>-2771641499.923013</v>
       </c>
       <c r="U7" t="n">
-        <v>-232570.3554065356</v>
+        <v>-233205.376133722</v>
       </c>
       <c r="V7" t="n">
-        <v>-3583411047.72655</v>
+        <v>-3705203121.520826</v>
       </c>
       <c r="W7" t="n">
-        <v>-826723038.7310504</v>
+        <v>1506496099.646032</v>
       </c>
       <c r="X7" t="n">
-        <v>-136314.4476758052</v>
+        <v>-119743.7579178711</v>
       </c>
       <c r="Y7" t="n">
-        <v>-53653.61766567802</v>
+        <v>94824.54387123765</v>
       </c>
       <c r="Z7" t="n">
-        <v>-2100482934.764006</v>
+        <v>-1902735093.533288</v>
       </c>
       <c r="AA7" t="n">
-        <v>192.8467220810885</v>
+        <v>220.5934481252418</v>
       </c>
       <c r="AB7" t="n">
-        <v>186.8326858392367</v>
+        <v>218.9052544371791</v>
       </c>
       <c r="AC7" t="n">
-        <v>775145884224.6219</v>
+        <v>7.722145223759889e+23</v>
       </c>
     </row>
     <row r="8">
@@ -1114,13 +1114,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1594694610.667577</v>
+        <v>1639007780.755694</v>
       </c>
       <c r="C8" t="n">
-        <v>189933.4863998702</v>
+        <v>189908.4333496452</v>
       </c>
       <c r="D8" t="n">
-        <v>95754.66542934511</v>
+        <v>97218.8636963178</v>
       </c>
       <c r="E8" t="n">
         <v>300</v>
@@ -1129,73 +1129,73 @@
         <v>299.593</v>
       </c>
       <c r="G8" t="n">
-        <v>166065.4198369968</v>
+        <v>165930.8467761178</v>
       </c>
       <c r="H8" t="n">
-        <v>918987094.6085594</v>
+        <v>959726250.1850129</v>
       </c>
       <c r="I8" t="n">
-        <v>1822872622.454407</v>
+        <v>1874762158.252865</v>
       </c>
       <c r="J8" t="n">
-        <v>7999.999999999313</v>
+        <v>7999.999999994588</v>
       </c>
       <c r="K8" t="n">
-        <v>205.8303335140679</v>
+        <v>274.7208713533655</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>193.1798016425294</v>
+        <v>220.1956463684004</v>
       </c>
       <c r="N8" t="n">
-        <v>1060218283.85384</v>
+        <v>1113538971.015703</v>
       </c>
       <c r="O8" t="n">
-        <v>205.5843289204146</v>
+        <v>274.5757138172839</v>
       </c>
       <c r="P8" t="n">
-        <v>209.799247740342</v>
+        <v>278.5685705037849</v>
       </c>
       <c r="Q8" t="n">
-        <v>-8000.000000001009</v>
+        <v>-8000.000000003904</v>
       </c>
       <c r="R8" t="n">
         <v>-0</v>
       </c>
       <c r="S8" t="n">
-        <v>350.2015819589053</v>
+        <v>345.485973449601</v>
       </c>
       <c r="T8" t="n">
-        <v>-2651289794.199167</v>
+        <v>-2528310116.609456</v>
       </c>
       <c r="U8" t="n">
-        <v>-232568.0745424558</v>
+        <v>-232727.4662385818</v>
       </c>
       <c r="V8" t="n">
-        <v>-3584188962.117252</v>
+        <v>-3462979952.340799</v>
       </c>
       <c r="W8" t="n">
-        <v>-826835474.3814949</v>
+        <v>1114988653.324024</v>
       </c>
       <c r="X8" t="n">
-        <v>-136301.2301360804</v>
+        <v>-120619.4151290417</v>
       </c>
       <c r="Y8" t="n">
-        <v>-53648.20866282489</v>
+        <v>75355.62286146356</v>
       </c>
       <c r="Z8" t="n">
-        <v>-2100739947.873653</v>
+        <v>-1804431516.498555</v>
       </c>
       <c r="AA8" t="n">
-        <v>192.6253163168745</v>
+        <v>220.2807290447612</v>
       </c>
       <c r="AB8" t="n">
-        <v>186.6141908507531</v>
+        <v>218.4140871454281</v>
       </c>
       <c r="AC8" t="n">
-        <v>775148680688.5874</v>
+        <v>7.722145223759914e+23</v>
       </c>
     </row>
     <row r="9">
@@ -1203,88 +1203,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1593571979.666034</v>
+        <v>1638437677.130705</v>
       </c>
       <c r="C9" t="n">
-        <v>189933.3613070367</v>
+        <v>189908.4426724576</v>
       </c>
       <c r="D9" t="n">
-        <v>95884.59892350949</v>
+        <v>97280.82061802079</v>
       </c>
       <c r="E9" t="n">
-        <v>300.0000000000967</v>
+        <v>300</v>
       </c>
       <c r="F9" t="n">
         <v>365</v>
       </c>
       <c r="G9" t="n">
-        <v>165936.1172633639</v>
+        <v>165870.0083042778</v>
       </c>
       <c r="H9" t="n">
-        <v>920303337.393912</v>
+        <v>960358508.398275</v>
       </c>
       <c r="I9" t="n">
-        <v>1823009118.275962</v>
+        <v>1874803433.487943</v>
       </c>
       <c r="J9" t="n">
-        <v>7999.999999935897</v>
+        <v>7999.999999997875</v>
       </c>
       <c r="K9" t="n">
-        <v>206.0155179032865</v>
+        <v>274.7787184124179</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>193.1635228136211</v>
+        <v>220.1125588193441</v>
       </c>
       <c r="N9" t="n">
-        <v>1060358726.100366</v>
+        <v>1113581287.751295</v>
       </c>
       <c r="O9" t="n">
-        <v>205.7585191922765</v>
+        <v>274.6286468261501</v>
       </c>
       <c r="P9" t="n">
-        <v>209.979069282582</v>
+        <v>278.6240122958544</v>
       </c>
       <c r="Q9" t="n">
-        <v>-7999.999999998934</v>
+        <v>-8000.000000001884</v>
       </c>
       <c r="R9" t="n">
         <v>-0</v>
       </c>
       <c r="S9" t="n">
-        <v>350.2057621564821</v>
+        <v>343.3716029063543</v>
       </c>
       <c r="T9" t="n">
-        <v>-2651406973.36105</v>
+        <v>-2462049461.009563</v>
       </c>
       <c r="U9" t="n">
-        <v>-232567.9906173892</v>
+        <v>-232461.1225365161</v>
       </c>
       <c r="V9" t="n">
-        <v>-3584304484.62777</v>
+        <v>-3396383937.232882</v>
       </c>
       <c r="W9" t="n">
-        <v>-826847852.8868643</v>
+        <v>1017085026.468192</v>
       </c>
       <c r="X9" t="n">
-        <v>-136299.9211933632</v>
+        <v>-120828.830418035</v>
       </c>
       <c r="Y9" t="n">
-        <v>-53647.11391308798</v>
+        <v>70126.03094285732</v>
       </c>
       <c r="Z9" t="n">
-        <v>-2100783956.499925</v>
+        <v>-1777606443.988894</v>
       </c>
       <c r="AA9" t="n">
-        <v>192.6089724361126</v>
+        <v>220.2010449653551</v>
       </c>
       <c r="AB9" t="n">
-        <v>186.5982090915896</v>
+        <v>218.2806219332935</v>
       </c>
       <c r="AC9" t="n">
-        <v>775149378744.674</v>
+        <v>7.722145223759897e+23</v>
       </c>
     </row>
     <row r="10">
@@ -1292,13 +1292,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1592100295.268288</v>
+        <v>1638150911.713346</v>
       </c>
       <c r="C10" t="n">
-        <v>189933.0744245692</v>
+        <v>189908.4543469489</v>
       </c>
       <c r="D10" t="n">
-        <v>96068.41403203271</v>
+        <v>97314.60930960241</v>
       </c>
       <c r="E10" t="n">
         <v>300</v>
@@ -1307,73 +1307,73 @@
         <v>730</v>
       </c>
       <c r="G10" t="n">
-        <v>165753.5045811039</v>
+        <v>165836.5331826608</v>
       </c>
       <c r="H10" t="n">
-        <v>922230922.7354305</v>
+        <v>960717971.5648407</v>
       </c>
       <c r="I10" t="n">
-        <v>1823329384.600993</v>
+        <v>1874854157.242187</v>
       </c>
       <c r="J10" t="n">
-        <v>8000.000000001021</v>
+        <v>8000.000000003607</v>
       </c>
       <c r="K10" t="n">
-        <v>206.4451404744721</v>
+        <v>274.8482234860267</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>193.1943664073569</v>
+        <v>219.8764031521979</v>
       </c>
       <c r="N10" t="n">
-        <v>1060688228.410155</v>
+        <v>1113633290.64274</v>
       </c>
       <c r="O10" t="n">
-        <v>206.1725584449522</v>
+        <v>274.6954180023741</v>
       </c>
       <c r="P10" t="n">
-        <v>210.4010696143773</v>
+        <v>278.6921480381439</v>
       </c>
       <c r="Q10" t="n">
-        <v>-7999.999999996894</v>
+        <v>-7999.999962708788</v>
       </c>
       <c r="R10" t="n">
         <v>-0</v>
       </c>
       <c r="S10" t="n">
-        <v>350.1967873829011</v>
+        <v>336.0105123274796</v>
       </c>
       <c r="T10" t="n">
-        <v>-2651152309.024638</v>
+        <v>-2230031523.069333</v>
       </c>
       <c r="U10" t="n">
-        <v>-232568.1021519629</v>
+        <v>-230915.0005066866</v>
       </c>
       <c r="V10" t="n">
-        <v>-3584053183.583239</v>
+        <v>-3160371146.069261</v>
       </c>
       <c r="W10" t="n">
-        <v>-826654711.960825</v>
+        <v>702681839.2239499</v>
       </c>
       <c r="X10" t="n">
-        <v>-136314.148070177</v>
+        <v>-121467.3046907853</v>
       </c>
       <c r="Y10" t="n">
-        <v>-53643.00486211573</v>
+        <v>52088.46189915038</v>
       </c>
       <c r="Z10" t="n">
-        <v>-2100983475.151222</v>
+        <v>-1684497974.146901</v>
       </c>
       <c r="AA10" t="n">
-        <v>192.6399153369339</v>
+        <v>219.9760741928163</v>
       </c>
       <c r="AB10" t="n">
-        <v>186.6283954467695</v>
+        <v>217.8471613181465</v>
       </c>
       <c r="AC10" t="n">
-        <v>775153276077.5026</v>
+        <v>7.722145223759842e+23</v>
       </c>
     </row>
     <row r="11">
@@ -1381,88 +1381,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1591912165.348271</v>
+        <v>1638119832.671758</v>
       </c>
       <c r="C11" t="n">
-        <v>189932.8585057624</v>
+        <v>189908.4579611416</v>
       </c>
       <c r="D11" t="n">
-        <v>96109.35918046103</v>
+        <v>97319.19667822584</v>
       </c>
       <c r="E11" t="n">
-        <v>300.0000000006613</v>
+        <v>300</v>
       </c>
       <c r="F11" t="n">
         <v>1095</v>
       </c>
       <c r="G11" t="n">
-        <v>165713.2947697081</v>
+        <v>165832.0196405954</v>
       </c>
       <c r="H11" t="n">
-        <v>922738727.9084374</v>
+        <v>960771180.3845469</v>
       </c>
       <c r="I11" t="n">
-        <v>1823554117.286926</v>
+        <v>1874869652.607309</v>
       </c>
       <c r="J11" t="n">
-        <v>7999.999999567346</v>
+        <v>8000.000000004366</v>
       </c>
       <c r="K11" t="n">
-        <v>206.7431537451517</v>
+        <v>274.8692252380038</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>193.2355892317938</v>
+        <v>219.7753049471667</v>
       </c>
       <c r="N11" t="n">
-        <v>1060919496.182666</v>
+        <v>1113649176.594545</v>
       </c>
       <c r="O11" t="n">
-        <v>206.4670939076623</v>
+        <v>274.716047813099</v>
       </c>
       <c r="P11" t="n">
-        <v>210.697378307592</v>
+        <v>278.7129630598195</v>
       </c>
       <c r="Q11" t="n">
-        <v>-7999.999972008287</v>
+        <v>-7999.999999914563</v>
       </c>
       <c r="R11" t="n">
         <v>-0</v>
       </c>
       <c r="S11" t="n">
-        <v>350.1317561824956</v>
+        <v>332.8112802272023</v>
       </c>
       <c r="T11" t="n">
-        <v>-2649169298.319911</v>
+        <v>-2128362720.592114</v>
       </c>
       <c r="U11" t="n">
-        <v>-232565.8696246166</v>
+        <v>-229874.3823160155</v>
       </c>
       <c r="V11" t="n">
-        <v>-3582085986.870168</v>
+        <v>-3055299600.858873</v>
       </c>
       <c r="W11" t="n">
-        <v>-825957089.716957</v>
+        <v>579676382.8136194</v>
       </c>
       <c r="X11" t="n">
-        <v>-136364.8641326509</v>
+        <v>-121710.9920327452</v>
       </c>
       <c r="Y11" t="n">
-        <v>-53644.35063091202</v>
+        <v>44409.88763253213</v>
       </c>
       <c r="Z11" t="n">
-        <v>-2101122814.237861</v>
+        <v>-1644282769.946337</v>
       </c>
       <c r="AA11" t="n">
-        <v>192.6810892621704</v>
+        <v>219.8805539218287</v>
       </c>
       <c r="AB11" t="n">
-        <v>186.6644537062157</v>
+        <v>217.6484947823753</v>
       </c>
       <c r="AC11" t="n">
-        <v>775157168968.8019</v>
+        <v>7.722145223759851e+23</v>
       </c>
     </row>
     <row r="12">
@@ -1470,88 +1470,88 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1592098979.841548</v>
+        <v>1638116965.670097</v>
       </c>
       <c r="C12" t="n">
-        <v>189932.6839773517</v>
+        <v>189908.4591400681</v>
       </c>
       <c r="D12" t="n">
-        <v>96107.16009084218</v>
+        <v>97319.9543107692</v>
       </c>
       <c r="E12" t="n">
-        <v>300.0000000002277</v>
+        <v>300</v>
       </c>
       <c r="F12" t="n">
         <v>1460</v>
       </c>
       <c r="G12" t="n">
-        <v>165716.0517736598</v>
+        <v>165831.2850807778</v>
       </c>
       <c r="H12" t="n">
-        <v>922810496.3441252</v>
+        <v>960781233.546371</v>
       </c>
       <c r="I12" t="n">
-        <v>1823736008.956117</v>
+        <v>1874874686.806985</v>
       </c>
       <c r="J12" t="n">
-        <v>7999.999999853605</v>
+        <v>8000.000000001006</v>
       </c>
       <c r="K12" t="n">
-        <v>206.9829511861027</v>
+        <v>274.8760185807608</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>193.2714805676071</v>
+        <v>219.7362647982301</v>
       </c>
       <c r="N12" t="n">
-        <v>1061106676.619584</v>
+        <v>1113654337.672801</v>
       </c>
       <c r="O12" t="n">
-        <v>206.7070704072697</v>
+        <v>274.7227797516738</v>
       </c>
       <c r="P12" t="n">
-        <v>210.9372595609181</v>
+        <v>278.7197255883726</v>
       </c>
       <c r="Q12" t="n">
-        <v>-7999.999913624764</v>
+        <v>-7999.999999998697</v>
       </c>
       <c r="R12" t="n">
         <v>-0</v>
       </c>
       <c r="S12" t="n">
-        <v>349.9736349597302</v>
+        <v>331.5627072033802</v>
       </c>
       <c r="T12" t="n">
-        <v>-2644285901.442848</v>
+        <v>-2088677735.34479</v>
       </c>
       <c r="U12" t="n">
-        <v>-232559.3466767931</v>
+        <v>-229392.4107496117</v>
       </c>
       <c r="V12" t="n">
-        <v>-3577238102.568581</v>
+        <v>-3013944223.784164</v>
       </c>
       <c r="W12" t="n">
-        <v>-824560030.5048212</v>
+        <v>534082702.8284442</v>
       </c>
       <c r="X12" t="n">
-        <v>-136465.6752302136</v>
+        <v>-121804.700090125</v>
       </c>
       <c r="Y12" t="n">
-        <v>-53661.22618330622</v>
+        <v>41455.03399712605</v>
       </c>
       <c r="Z12" t="n">
-        <v>-2100900251.266027</v>
+        <v>-1628775691.82975</v>
       </c>
       <c r="AA12" t="n">
-        <v>192.7164811496234</v>
+        <v>219.8439362478236</v>
       </c>
       <c r="AB12" t="n">
-        <v>186.6875446985146</v>
+        <v>217.5692731496814</v>
       </c>
       <c r="AC12" t="n">
-        <v>775161048140.7765</v>
+        <v>7.722145223759908e+23</v>
       </c>
     </row>
     <row r="13">
@@ -1559,88 +1559,88 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1592362344.315365</v>
+        <v>1638117002.689451</v>
       </c>
       <c r="C13" t="n">
-        <v>189932.5350088725</v>
+        <v>189908.45951621</v>
       </c>
       <c r="D13" t="n">
-        <v>96094.6983629285</v>
+        <v>97320.0992440589</v>
       </c>
       <c r="E13" t="n">
-        <v>300.0000000001085</v>
+        <v>300</v>
       </c>
       <c r="F13" t="n">
         <v>1825</v>
       </c>
       <c r="G13" t="n">
-        <v>165728.989081415</v>
+        <v>165831.1472351316</v>
       </c>
       <c r="H13" t="n">
-        <v>922771390.0500996</v>
+        <v>960783484.4950441</v>
       </c>
       <c r="I13" t="n">
-        <v>1823893791.139488</v>
+        <v>1874876291.052327</v>
       </c>
       <c r="J13" t="n">
-        <v>7999.999999929117</v>
+        <v>7999.999999998149</v>
       </c>
       <c r="K13" t="n">
-        <v>207.1905549248868</v>
+        <v>274.8781794894371</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>193.2989058052959</v>
+        <v>219.7220994952846</v>
       </c>
       <c r="N13" t="n">
-        <v>1061269037.88298</v>
+        <v>1113655982.348866</v>
       </c>
       <c r="O13" t="n">
-        <v>206.9157237443385</v>
+        <v>274.7249289164653</v>
       </c>
       <c r="P13" t="n">
-        <v>211.1453731983034</v>
+        <v>278.7218806054808</v>
       </c>
       <c r="Q13" t="n">
-        <v>-7999.999811852619</v>
+        <v>-7999.999992645475</v>
       </c>
       <c r="R13" t="n">
         <v>-0</v>
       </c>
       <c r="S13" t="n">
-        <v>349.6990226740063</v>
+        <v>331.1091471680191</v>
       </c>
       <c r="T13" t="n">
-        <v>-2635731796.654946</v>
+        <v>-2074206671.136754</v>
       </c>
       <c r="U13" t="n">
-        <v>-232547.3665999305</v>
+        <v>-229206.929832748</v>
       </c>
       <c r="V13" t="n">
-        <v>-3568744351.161951</v>
+        <v>-2998820233.505341</v>
       </c>
       <c r="W13" t="n">
-        <v>-822502627.1271983</v>
+        <v>517903575.2936197</v>
       </c>
       <c r="X13" t="n">
-        <v>-136613.6114386259</v>
+        <v>-121837.3265373989</v>
       </c>
       <c r="Y13" t="n">
-        <v>-53706.65548259747</v>
+        <v>40392.6813652114</v>
       </c>
       <c r="Z13" t="n">
-        <v>-2099797815.169005</v>
+        <v>-1623119151.685786</v>
       </c>
       <c r="AA13" t="n">
-        <v>192.7427677619537</v>
+        <v>219.8307555145053</v>
       </c>
       <c r="AB13" t="n">
-        <v>186.6924053470407</v>
+        <v>217.5402507833685</v>
       </c>
       <c r="AC13" t="n">
-        <v>775164902134.3354</v>
+        <v>7.72214522375984e+23</v>
       </c>
     </row>
     <row r="14">
@@ -1648,88 +1648,88 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1592615728.004584</v>
+        <v>1638117137.987327</v>
       </c>
       <c r="C14" t="n">
-        <v>189932.4028274109</v>
+        <v>189908.459631459</v>
       </c>
       <c r="D14" t="n">
-        <v>96081.78545647104</v>
+        <v>97320.13118203791</v>
       </c>
       <c r="E14" t="n">
-        <v>300.0000000000617</v>
+        <v>300</v>
       </c>
       <c r="F14" t="n">
         <v>2190</v>
       </c>
       <c r="G14" t="n">
-        <v>165742.3304780437</v>
+        <v>165831.1176085571</v>
       </c>
       <c r="H14" t="n">
-        <v>922719889.3119195</v>
+        <v>960784050.728711</v>
       </c>
       <c r="I14" t="n">
-        <v>1824035838.262956</v>
+        <v>1874876781.903982</v>
       </c>
       <c r="J14" t="n">
-        <v>7999.99999996126</v>
+        <v>8000.000000002035</v>
       </c>
       <c r="K14" t="n">
-        <v>207.3774073197485</v>
+        <v>274.8788401504227</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>193.3175539787255</v>
+        <v>219.7172742468732</v>
       </c>
       <c r="N14" t="n">
-        <v>1061415200.531157</v>
+        <v>1113656485.570475</v>
       </c>
       <c r="O14" t="n">
-        <v>207.1036646606101</v>
+        <v>274.7255869972986</v>
       </c>
       <c r="P14" t="n">
-        <v>211.3327548722876</v>
+        <v>278.7225399760665</v>
       </c>
       <c r="Q14" t="n">
-        <v>-7999.999863896222</v>
+        <v>-7999.999999974917</v>
       </c>
       <c r="R14" t="n">
         <v>-0</v>
       </c>
       <c r="S14" t="n">
-        <v>349.3029225317142</v>
+        <v>330.954450918499</v>
       </c>
       <c r="T14" t="n">
-        <v>-2623433326.22371</v>
+        <v>-2069225240.644368</v>
       </c>
       <c r="U14" t="n">
-        <v>-232527.3518338677</v>
+        <v>-229143.0867278312</v>
       </c>
       <c r="V14" t="n">
-        <v>-3556519924.758279</v>
+        <v>-2993614069.013251</v>
       </c>
       <c r="W14" t="n">
-        <v>-820045380.2066995</v>
+        <v>512342302.6736627</v>
       </c>
       <c r="X14" t="n">
-        <v>-136791.2609032717</v>
+        <v>-121850.9433803057</v>
       </c>
       <c r="Y14" t="n">
-        <v>-53791.45283910138</v>
+        <v>40024.75198781868</v>
       </c>
       <c r="Z14" t="n">
-        <v>-2097296631.527059</v>
+        <v>-1621197691.100609</v>
       </c>
       <c r="AA14" t="n">
-        <v>192.7594034073218</v>
+        <v>219.8262629653264</v>
       </c>
       <c r="AB14" t="n">
-        <v>186.6781565341525</v>
+        <v>217.5302460382038</v>
       </c>
       <c r="AC14" t="n">
-        <v>775168719539.598</v>
+        <v>7.722145223759838e+23</v>
       </c>
     </row>
     <row r="15">
@@ -1737,88 +1737,88 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1592839137.596417</v>
+        <v>1638117193.541134</v>
       </c>
       <c r="C15" t="n">
-        <v>189932.2828886182</v>
+        <v>189908.4596650204</v>
       </c>
       <c r="D15" t="n">
-        <v>96070.91342598305</v>
+        <v>97320.1388531992</v>
       </c>
       <c r="E15" t="n">
-        <v>300.000000000039</v>
+        <v>300</v>
       </c>
       <c r="F15" t="n">
         <v>2555</v>
       </c>
       <c r="G15" t="n">
-        <v>165753.5994882497</v>
+        <v>165831.110548206</v>
       </c>
       <c r="H15" t="n">
-        <v>922682134.5207949</v>
+        <v>960784199.92904</v>
       </c>
       <c r="I15" t="n">
-        <v>1824166465.097085</v>
+        <v>1874876925.614664</v>
       </c>
       <c r="J15" t="n">
-        <v>7999.999999972934</v>
+        <v>7999.99999999535</v>
       </c>
       <c r="K15" t="n">
-        <v>207.5492974306351</v>
+        <v>274.8790335142094</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>193.3280011047239</v>
+        <v>219.7157319219104</v>
       </c>
       <c r="N15" t="n">
-        <v>1061549606.237425</v>
+        <v>1113656632.903586</v>
       </c>
       <c r="O15" t="n">
-        <v>207.2764708978549</v>
+        <v>274.7257797393609</v>
       </c>
       <c r="P15" t="n">
-        <v>211.5050902495549</v>
+        <v>278.7227330279356</v>
       </c>
       <c r="Q15" t="n">
-        <v>-7999.999541021442</v>
+        <v>-8000.000000002272</v>
       </c>
       <c r="R15" t="n">
         <v>-0</v>
       </c>
       <c r="S15" t="n">
-        <v>348.8041801954017</v>
+        <v>330.9045740630626</v>
       </c>
       <c r="T15" t="n">
-        <v>-2607909587.224663</v>
+        <v>-2067614138.118566</v>
       </c>
       <c r="U15" t="n">
-        <v>-232499.5620238242</v>
+        <v>-229122.4390501677</v>
       </c>
       <c r="V15" t="n">
-        <v>-3541078012.041574</v>
+        <v>-2991930284.855678</v>
       </c>
       <c r="W15" t="n">
-        <v>-817570157.5529152</v>
+        <v>510552309.8288597</v>
       </c>
       <c r="X15" t="n">
-        <v>-136966.5358912635</v>
+        <v>-121855.1556319831</v>
       </c>
       <c r="Y15" t="n">
-        <v>-53923.86969420524</v>
+        <v>39906.16819744471</v>
       </c>
       <c r="Z15" t="n">
-        <v>-2092939196.102991</v>
+        <v>-1620572903.432771</v>
       </c>
       <c r="AA15" t="n">
-        <v>192.7673539001443</v>
+        <v>219.8248252072966</v>
       </c>
       <c r="AB15" t="n">
-        <v>186.6466156942981</v>
+        <v>217.5270271099355</v>
       </c>
       <c r="AC15" t="n">
-        <v>775172490623.4811</v>
+        <v>7.722145223759902e+23</v>
       </c>
     </row>
     <row r="16">
@@ -1826,88 +1826,88 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1593032135.190024</v>
+        <v>1638117211.293392</v>
       </c>
       <c r="C16" t="n">
-        <v>189932.1724886424</v>
+        <v>189908.4596746773</v>
       </c>
       <c r="D16" t="n">
-        <v>96062.36914587264</v>
+        <v>97320.14079189778</v>
       </c>
       <c r="E16" t="n">
-        <v>300.0000000000268</v>
+        <v>300</v>
       </c>
       <c r="F16" t="n">
         <v>2920</v>
       </c>
       <c r="G16" t="n">
-        <v>165762.5170305693</v>
+        <v>165831.1087842043</v>
       </c>
       <c r="H16" t="n">
-        <v>922662190.0585392</v>
+        <v>960784239.6947923</v>
       </c>
       <c r="I16" t="n">
-        <v>1824288221.842102</v>
+        <v>1874876965.964002</v>
       </c>
       <c r="J16" t="n">
-        <v>7999.999999981709</v>
+        <v>8000.000000003335</v>
       </c>
       <c r="K16" t="n">
-        <v>207.7095974952124</v>
+        <v>274.8790877925294</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>193.3313665356998</v>
+        <v>219.7152772337082</v>
       </c>
       <c r="N16" t="n">
-        <v>1061674880.27064</v>
+        <v>1113656674.268987</v>
       </c>
       <c r="O16" t="n">
-        <v>207.4374902731644</v>
+        <v>274.7258338607172</v>
       </c>
       <c r="P16" t="n">
-        <v>211.6657395716452</v>
+        <v>278.7227872275917</v>
       </c>
       <c r="Q16" t="n">
-        <v>-7999.999774418126</v>
+        <v>-7999.999999987302</v>
       </c>
       <c r="R16" t="n">
         <v>-0</v>
       </c>
       <c r="S16" t="n">
-        <v>348.2267960041913</v>
+        <v>330.8894127783896</v>
       </c>
       <c r="T16" t="n">
-        <v>-2589938828.973173</v>
+        <v>-2067124295.033643</v>
       </c>
       <c r="U16" t="n">
-        <v>-232463.2072905079</v>
+        <v>-229116.1497899142</v>
       </c>
       <c r="V16" t="n">
-        <v>-3523182468.024355</v>
+        <v>-2991418291.571064</v>
       </c>
       <c r="W16" t="n">
-        <v>-815325340.7097437</v>
+        <v>510008674.8249803</v>
       </c>
       <c r="X16" t="n">
-        <v>-137121.1621608917</v>
+        <v>-121856.3374973134</v>
       </c>
       <c r="Y16" t="n">
-        <v>-54100.98995174766</v>
+        <v>39870.12713869828</v>
       </c>
       <c r="Z16" t="n">
-        <v>-2086643226.413237</v>
+        <v>-1620381312.856952</v>
       </c>
       <c r="AA16" t="n">
-        <v>192.7677355388703</v>
+        <v>219.8244003015253</v>
       </c>
       <c r="AB16" t="n">
-        <v>186.6010069939983</v>
+        <v>217.5260616972888</v>
       </c>
       <c r="AC16" t="n">
-        <v>775176208203.6438</v>
+        <v>7.722145223759843e+23</v>
       </c>
     </row>
     <row r="17">
@@ -1915,88 +1915,88 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1593199267.535519</v>
+        <v>1638117216.279385</v>
       </c>
       <c r="C17" t="n">
-        <v>189932.0698702138</v>
+        <v>189908.4596772102</v>
       </c>
       <c r="D17" t="n">
-        <v>96055.83421404121</v>
+        <v>97320.14129649515</v>
       </c>
       <c r="E17" t="n">
-        <v>300.0000000000191</v>
+        <v>299.9999999999999</v>
       </c>
       <c r="F17" t="n">
         <v>3285</v>
       </c>
       <c r="G17" t="n">
-        <v>165769.4059379813</v>
+        <v>165831.1083296609</v>
       </c>
       <c r="H17" t="n">
-        <v>922657842.4930849</v>
+        <v>960784250.2326373</v>
       </c>
       <c r="I17" t="n">
-        <v>1824402751.195184</v>
+        <v>1874876976.83261</v>
       </c>
       <c r="J17" t="n">
-        <v>7999.999999984941</v>
+        <v>8000.000000002602</v>
       </c>
       <c r="K17" t="n">
-        <v>207.8604587099145</v>
+        <v>274.8791024131549</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>193.3286784576223</v>
+        <v>219.7151529507799</v>
       </c>
       <c r="N17" t="n">
-        <v>1061792713.738972</v>
+        <v>1113656685.411576</v>
       </c>
       <c r="O17" t="n">
-        <v>207.5889008821903</v>
+        <v>274.7258484406128</v>
       </c>
       <c r="P17" t="n">
-        <v>211.8168671457499</v>
+        <v>278.7228018278673</v>
       </c>
       <c r="Q17" t="n">
-        <v>-7999.999501828378</v>
+        <v>-7999.999999952247</v>
       </c>
       <c r="R17" t="n">
         <v>-0</v>
       </c>
       <c r="S17" t="n">
-        <v>347.5990987674944</v>
+        <v>330.884970836517</v>
       </c>
       <c r="T17" t="n">
-        <v>-2570291643.401319</v>
+        <v>-2066984560.460172</v>
       </c>
       <c r="U17" t="n">
-        <v>-232420.1221379445</v>
+        <v>-229114.2350763908</v>
       </c>
       <c r="V17" t="n">
-        <v>-3503601964.697632</v>
+        <v>-2991271696.001168</v>
       </c>
       <c r="W17" t="n">
-        <v>-813514102.04116</v>
+        <v>509853931.4965768</v>
       </c>
       <c r="X17" t="n">
-        <v>-137238.9833855772</v>
+        <v>-121856.6026267423</v>
       </c>
       <c r="Y17" t="n">
-        <v>-54320.57807631615</v>
+        <v>39859.85844448351</v>
       </c>
       <c r="Z17" t="n">
-        <v>-2078503891.03959</v>
+        <v>-1620325350.06749</v>
       </c>
       <c r="AA17" t="n">
-        <v>192.7617354327624</v>
+        <v>219.8242837465069</v>
       </c>
       <c r="AB17" t="n">
-        <v>186.5439089050254</v>
+        <v>217.5257913644389</v>
       </c>
       <c r="AC17" t="n">
-        <v>775179867428.1184</v>
+        <v>7.722145223759867e+23</v>
       </c>
     </row>
     <row r="18">
@@ -2004,88 +2004,88 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1593345545.967561</v>
+        <v>1638117217.46579</v>
       </c>
       <c r="C18" t="n">
-        <v>189931.9738163211</v>
+        <v>189908.4596778434</v>
       </c>
       <c r="D18" t="n">
-        <v>96050.89318032947</v>
+        <v>97320.1414187867</v>
       </c>
       <c r="E18" t="n">
-        <v>300.0000000000142</v>
+        <v>300</v>
       </c>
       <c r="F18" t="n">
         <v>3650</v>
       </c>
       <c r="G18" t="n">
-        <v>165774.6846555635</v>
+        <v>165831.1082034205</v>
       </c>
       <c r="H18" t="n">
-        <v>922665680.7229668</v>
+        <v>960784252.8667833</v>
       </c>
       <c r="I18" t="n">
-        <v>1824511179.145141</v>
+        <v>1874876979.623474</v>
       </c>
       <c r="J18" t="n">
-        <v>7999.9999999898</v>
+        <v>8000.000000001689</v>
       </c>
       <c r="K18" t="n">
-        <v>208.0033472903393</v>
+        <v>274.8791061680848</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>193.320847664917</v>
+        <v>219.7151212030556</v>
       </c>
       <c r="N18" t="n">
-        <v>1061904265.859084</v>
+        <v>1113656688.272867</v>
       </c>
       <c r="O18" t="n">
-        <v>207.7322040928371</v>
+        <v>274.7258521849917</v>
       </c>
       <c r="P18" t="n">
-        <v>211.9599563483228</v>
+        <v>278.7228055771854</v>
       </c>
       <c r="Q18" t="n">
-        <v>-7999.999394951149</v>
+        <v>-7999.999999833798</v>
       </c>
       <c r="R18" t="n">
         <v>-0</v>
       </c>
       <c r="S18" t="n">
-        <v>346.9346060464277</v>
+        <v>330.8837788911245</v>
       </c>
       <c r="T18" t="n">
-        <v>-2549589073.534534</v>
+        <v>-2066947062.164719</v>
       </c>
       <c r="U18" t="n">
-        <v>-232367.216561377</v>
+        <v>-229113.7212554378</v>
       </c>
       <c r="V18" t="n">
-        <v>-3482934570.899564</v>
+        <v>-2991232356.504039</v>
       </c>
       <c r="W18" t="n">
-        <v>-812138541.8866307</v>
+        <v>509812479.729844</v>
       </c>
       <c r="X18" t="n">
-        <v>-137318.9331039909</v>
+        <v>-121856.6534288979</v>
       </c>
       <c r="Y18" t="n">
-        <v>-54572.80283953548</v>
+        <v>39857.10533872909</v>
       </c>
       <c r="Z18" t="n">
-        <v>-2068821079.939611</v>
+        <v>-1620309966.918197</v>
       </c>
       <c r="AA18" t="n">
-        <v>192.7502621494561</v>
+        <v>219.8242538624832</v>
       </c>
       <c r="AB18" t="n">
-        <v>186.4780510315348</v>
+        <v>217.5257203565076</v>
       </c>
       <c r="AC18" t="n">
-        <v>775183465640.1637</v>
+        <v>7.722145223759894e+23</v>
       </c>
     </row>
     <row r="19">
@@ -2093,88 +2093,88 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1593475256.677638</v>
+        <v>1638117217.898922</v>
       </c>
       <c r="C19" t="n">
-        <v>189931.8834623512</v>
+        <v>189908.4596780017</v>
       </c>
       <c r="D19" t="n">
-        <v>96047.17375301055</v>
+        <v>97320.14146176702</v>
       </c>
       <c r="E19" t="n">
-        <v>300.0000000000107</v>
+        <v>300</v>
       </c>
       <c r="F19" t="n">
         <v>4015</v>
       </c>
       <c r="G19" t="n">
-        <v>165778.7273093844</v>
+        <v>165831.1081841415</v>
       </c>
       <c r="H19" t="n">
-        <v>922682532.8455136</v>
+        <v>960784253.6567314</v>
       </c>
       <c r="I19" t="n">
-        <v>1824614291.01207</v>
+        <v>1874876980.338598</v>
       </c>
       <c r="J19" t="n">
-        <v>7999.999999991694</v>
+        <v>8000.000000001288</v>
       </c>
       <c r="K19" t="n">
-        <v>208.1392822577137</v>
+        <v>274.8791071297635</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>193.3083150341253</v>
+        <v>219.7151134925203</v>
       </c>
       <c r="N19" t="n">
-        <v>1062010345.18247</v>
+        <v>1113656689.006055</v>
       </c>
       <c r="O19" t="n">
-        <v>207.8684504292352</v>
+        <v>274.7258531440251</v>
       </c>
       <c r="P19" t="n">
-        <v>212.0960415810011</v>
+        <v>278.7228065379546</v>
       </c>
       <c r="Q19" t="n">
-        <v>-7999.999843856665</v>
+        <v>-7999.999999990996</v>
       </c>
       <c r="R19" t="n">
         <v>-0</v>
       </c>
       <c r="S19" t="n">
-        <v>346.2518451453256</v>
+        <v>330.8834753236275</v>
       </c>
       <c r="T19" t="n">
-        <v>-2528261335.974461</v>
+        <v>-2066937512.084009</v>
       </c>
       <c r="U19" t="n">
-        <v>-232307.1275475809</v>
+        <v>-229113.5904004529</v>
       </c>
       <c r="V19" t="n">
-        <v>-3461617058.263893</v>
+        <v>-2991222337.520918</v>
       </c>
       <c r="W19" t="n">
-        <v>-811180794.0550932</v>
+        <v>509801918.643338</v>
       </c>
       <c r="X19" t="n">
-        <v>-137359.4252803331</v>
+        <v>-121856.6621022769</v>
       </c>
       <c r="Y19" t="n">
-        <v>-54852.20407769836</v>
+        <v>39856.40307408733</v>
       </c>
       <c r="Z19" t="n">
-        <v>-2057883354.283359</v>
+        <v>-1620305959.999419</v>
       </c>
       <c r="AA19" t="n">
-        <v>192.7339269025975</v>
+        <v>219.8242465775274</v>
       </c>
       <c r="AB19" t="n">
-        <v>186.4048660019602</v>
+        <v>217.5257025971516</v>
       </c>
       <c r="AC19" t="n">
-        <v>775187001348.0293</v>
+        <v>7.72214522375985e+23</v>
       </c>
     </row>
     <row r="20">
@@ -2182,88 +2182,88 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1593591753.093576</v>
+        <v>1638117217.931401</v>
       </c>
       <c r="C20" t="n">
-        <v>189931.7981852745</v>
+        <v>189908.4596780017</v>
       </c>
       <c r="D20" t="n">
-        <v>96044.37861016314</v>
+        <v>97320.14145939036</v>
       </c>
       <c r="E20" t="n">
-        <v>300.000000000008</v>
+        <v>300</v>
       </c>
       <c r="F20" t="n">
         <v>4380</v>
       </c>
       <c r="G20" t="n">
-        <v>165781.8325306537</v>
+        <v>165831.1081839399</v>
       </c>
       <c r="H20" t="n">
-        <v>922705825.5905424</v>
+        <v>960784253.6534817</v>
       </c>
       <c r="I20" t="n">
-        <v>1824712636.142312</v>
+        <v>1874876980.37805</v>
       </c>
       <c r="J20" t="n">
-        <v>7999.999999992587</v>
+        <v>8000.000000000897</v>
       </c>
       <c r="K20" t="n">
-        <v>208.2689746911936</v>
+        <v>274.8791071828959</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>193.2914549303763</v>
+        <v>219.7151124567153</v>
       </c>
       <c r="N20" t="n">
-        <v>1062111517.371283</v>
+        <v>1113656689.04654</v>
       </c>
       <c r="O20" t="n">
-        <v>207.9983761361381</v>
+        <v>274.7258531972403</v>
       </c>
       <c r="P20" t="n">
-        <v>212.2258462126423</v>
+        <v>278.7228065910738</v>
       </c>
       <c r="Q20" t="n">
-        <v>-7999.999677786669</v>
+        <v>-7999.999999998582</v>
       </c>
       <c r="R20" t="n">
         <v>-0</v>
       </c>
       <c r="S20" t="n">
-        <v>345.559146153362</v>
+        <v>330.8834194888537</v>
       </c>
       <c r="T20" t="n">
-        <v>-2506545626.733546</v>
+        <v>-2066935755.814686</v>
       </c>
       <c r="U20" t="n">
-        <v>-232240.2929245456</v>
+        <v>-229113.5663360299</v>
       </c>
       <c r="V20" t="n">
-        <v>-3439885480.259052</v>
+        <v>-2991220495.013394</v>
       </c>
       <c r="W20" t="n">
-        <v>-810542973.0877647</v>
+        <v>509799965.6302639</v>
       </c>
       <c r="X20" t="n">
-        <v>-137366.8898118236</v>
+        <v>-121856.647932081</v>
       </c>
       <c r="Y20" t="n">
-        <v>-55151.56952742532</v>
+        <v>39856.2732364403</v>
       </c>
       <c r="Z20" t="n">
-        <v>-2045999218.131333</v>
+        <v>-1620304908.327485</v>
       </c>
       <c r="AA20" t="n">
-        <v>192.7130684144169</v>
+        <v>219.824245578425</v>
       </c>
       <c r="AB20" t="n">
-        <v>186.325341415807</v>
+        <v>217.5256997051371</v>
       </c>
       <c r="AC20" t="n">
-        <v>775190473777.2329</v>
+        <v>7.72214522375987e+23</v>
       </c>
     </row>
     <row r="21">
@@ -2271,88 +2271,88 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1593697596.90675</v>
+        <v>1638117217.931015</v>
       </c>
       <c r="C21" t="n">
-        <v>189931.7175097692</v>
+        <v>189908.4596780017</v>
       </c>
       <c r="D21" t="n">
-        <v>96042.27942404104</v>
+        <v>97320.14146958216</v>
       </c>
       <c r="E21" t="n">
-        <v>300.0000000000062</v>
+        <v>299.9999999999999</v>
       </c>
       <c r="F21" t="n">
         <v>4745</v>
       </c>
       <c r="G21" t="n">
-        <v>165784.2295524894</v>
+        <v>165831.1081766921</v>
       </c>
       <c r="H21" t="n">
-        <v>922733575.1473073</v>
+        <v>960784253.7958508</v>
       </c>
       <c r="I21" t="n">
-        <v>1824806621.738903</v>
+        <v>1874876980.459531</v>
       </c>
       <c r="J21" t="n">
-        <v>7999.999999995622</v>
+        <v>8000.00000000009</v>
       </c>
       <c r="K21" t="n">
-        <v>208.3929511939442</v>
+        <v>274.8791072929157</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>193.2704498124515</v>
+        <v>219.7151116480776</v>
       </c>
       <c r="N21" t="n">
-        <v>1062208201.770876</v>
+        <v>1113656689.130156</v>
       </c>
       <c r="O21" t="n">
-        <v>208.1225271409167</v>
+        <v>274.7258533065377</v>
       </c>
       <c r="P21" t="n">
-        <v>212.3499062825991</v>
+        <v>278.7228067007828</v>
       </c>
       <c r="Q21" t="n">
-        <v>-7999.999507997723</v>
+        <v>-7999.999999994081</v>
       </c>
       <c r="R21" t="n">
         <v>-0</v>
       </c>
       <c r="S21" t="n">
-        <v>344.8586184610576</v>
+        <v>330.8833913193802</v>
       </c>
       <c r="T21" t="n">
-        <v>-2484551762.45771</v>
+        <v>-2066934869.55402</v>
       </c>
       <c r="U21" t="n">
-        <v>-232165.805531804</v>
+        <v>-229113.55419194</v>
       </c>
       <c r="V21" t="n">
-        <v>-3417843966.752216</v>
+        <v>-2991219565.236799</v>
       </c>
       <c r="W21" t="n">
-        <v>-810089799.0995203</v>
+        <v>509799006.9593953</v>
       </c>
       <c r="X21" t="n">
-        <v>-137351.5714084599</v>
+        <v>-121856.6575234664</v>
       </c>
       <c r="Y21" t="n">
-        <v>-55463.53119613585</v>
+        <v>39856.20955744756</v>
       </c>
       <c r="Z21" t="n">
-        <v>-2033472975.821217</v>
+        <v>-1620304726.572562</v>
       </c>
       <c r="AA21" t="n">
-        <v>192.6877139867622</v>
+        <v>219.8242448150814</v>
       </c>
       <c r="AB21" t="n">
-        <v>186.2398605784162</v>
+        <v>217.5256979871159</v>
       </c>
       <c r="AC21" t="n">
-        <v>775193882556.7184</v>
+        <v>7.722145223759886e+23</v>
       </c>
     </row>
     <row r="22">
@@ -2360,88 +2360,88 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1593794741.466769</v>
+        <v>1638117218.006951</v>
       </c>
       <c r="C22" t="n">
-        <v>189931.6410376861</v>
+        <v>189908.4596780021</v>
       </c>
       <c r="D22" t="n">
-        <v>96040.70476630911</v>
+        <v>97320.14147278026</v>
       </c>
       <c r="E22" t="n">
-        <v>300.0000000000049</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="F22" t="n">
         <v>5110</v>
       </c>
       <c r="G22" t="n">
-        <v>165786.0905580945</v>
+        <v>165831.1081783631</v>
       </c>
       <c r="H22" t="n">
-        <v>922764308.8098073</v>
+        <v>960784253.8622701</v>
       </c>
       <c r="I22" t="n">
-        <v>1824896586.518731</v>
+        <v>1874876980.527541</v>
       </c>
       <c r="J22" t="n">
-        <v>7999.999999998003</v>
+        <v>7999.999999999429</v>
       </c>
       <c r="K22" t="n">
-        <v>208.5116505394953</v>
+        <v>274.8791073844236</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>193.2454464148756</v>
+        <v>219.7151113535055</v>
       </c>
       <c r="N22" t="n">
-        <v>1062300747.208266</v>
+        <v>1113656689.199945</v>
       </c>
       <c r="O22" t="n">
-        <v>208.2413567232936</v>
+        <v>274.7258533979727</v>
       </c>
       <c r="P22" t="n">
-        <v>212.4686676466543</v>
+        <v>278.7228067923469</v>
       </c>
       <c r="Q22" t="n">
-        <v>-7999.999988372207</v>
+        <v>-8000.000000003799</v>
       </c>
       <c r="R22" t="n">
         <v>-0</v>
       </c>
       <c r="S22" t="n">
-        <v>344.1474461196075</v>
+        <v>330.8833824104501</v>
       </c>
       <c r="T22" t="n">
-        <v>-2462291727.147063</v>
+        <v>-2066934589.231713</v>
       </c>
       <c r="U22" t="n">
-        <v>-232081.2986031985</v>
+        <v>-229113.5503510121</v>
       </c>
       <c r="V22" t="n">
-        <v>-3395493428.210742</v>
+        <v>-2991219271.152187</v>
       </c>
       <c r="W22" t="n">
-        <v>-809726085.0645822</v>
+        <v>509798704.5826982</v>
       </c>
       <c r="X22" t="n">
-        <v>-137320.1182548157</v>
+        <v>-121856.6604047542</v>
       </c>
       <c r="Y22" t="n">
-        <v>-55784.18482136994</v>
+        <v>39856.18932480142</v>
       </c>
       <c r="Z22" t="n">
-        <v>-2020489373.700838</v>
+        <v>-1620304659.96194</v>
       </c>
       <c r="AA22" t="n">
-        <v>192.6578459980812</v>
+        <v>219.8242445419915</v>
       </c>
       <c r="AB22" t="n">
-        <v>186.1483864185482</v>
+        <v>217.5256973974645</v>
       </c>
       <c r="AC22" t="n">
-        <v>775197227485.7474</v>
+        <v>7.722145223759855e+23</v>
       </c>
     </row>
     <row r="23">
@@ -2449,88 +2449,88 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1593884683.706009</v>
+        <v>1638117218.097097</v>
       </c>
       <c r="C23" t="n">
-        <v>189931.5684353866</v>
+        <v>189908.4596780018</v>
       </c>
       <c r="D23" t="n">
-        <v>96039.5253073597</v>
+        <v>97320.14147653591</v>
       </c>
       <c r="E23" t="n">
-        <v>300.0000000000038</v>
+        <v>300</v>
       </c>
       <c r="F23" t="n">
         <v>5475</v>
       </c>
       <c r="G23" t="n">
-        <v>165787.545552957</v>
+        <v>165831.1081831974</v>
       </c>
       <c r="H23" t="n">
-        <v>922796928.2501893</v>
+        <v>960784253.9242041</v>
       </c>
       <c r="I23" t="n">
-        <v>1824982811.054646</v>
+        <v>1874876980.576048</v>
       </c>
       <c r="J23" t="n">
-        <v>8000.000000000116</v>
+        <v>7999.999999998937</v>
       </c>
       <c r="K23" t="n">
-        <v>208.625436658943</v>
+        <v>274.8791074495533</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>193.2163773234719</v>
+        <v>219.7151112925947</v>
       </c>
       <c r="N23" t="n">
-        <v>1062389442.644595</v>
+        <v>1113656689.249725</v>
       </c>
       <c r="O23" t="n">
-        <v>208.3552397583988</v>
+        <v>274.7258534631389</v>
       </c>
       <c r="P23" t="n">
-        <v>212.582499579126</v>
+        <v>278.7228068576648</v>
       </c>
       <c r="Q23" t="n">
-        <v>-7999.999928864828</v>
+        <v>-8000.000000000661</v>
       </c>
       <c r="R23" t="n">
         <v>-0</v>
       </c>
       <c r="S23" t="n">
-        <v>343.4294308662454</v>
+        <v>330.8833794108141</v>
       </c>
       <c r="T23" t="n">
-        <v>-2439746931.41842</v>
+        <v>-2066934494.870852</v>
       </c>
       <c r="U23" t="n">
-        <v>-231988.6772474685</v>
+        <v>-229113.5490579778</v>
       </c>
       <c r="V23" t="n">
-        <v>-3372824475.998573</v>
+        <v>-2991219172.157664</v>
       </c>
       <c r="W23" t="n">
-        <v>-809400220.7833396</v>
+        <v>509798601.883175</v>
       </c>
       <c r="X23" t="n">
-        <v>-137272.5600848838</v>
+        <v>-121856.6613154026</v>
       </c>
       <c r="Y23" t="n">
-        <v>-56112.93497928287</v>
+        <v>39856.18238905466</v>
       </c>
       <c r="Z23" t="n">
-        <v>-2007114213.222753</v>
+        <v>-1620304634.571779</v>
       </c>
       <c r="AA23" t="n">
-        <v>192.6236265700144</v>
+        <v>219.8242444882033</v>
       </c>
       <c r="AB23" t="n">
-        <v>186.0507572286949</v>
+        <v>217.5256972328199</v>
       </c>
       <c r="AC23" t="n">
-        <v>775200508171.1548</v>
+        <v>7.722145223759863e+23</v>
       </c>
     </row>
     <row r="24">
@@ -2538,88 +2538,88 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1593968574.667046</v>
+        <v>1638117218.168504</v>
       </c>
       <c r="C24" t="n">
-        <v>189931.4994148285</v>
+        <v>189908.4596781601</v>
       </c>
       <c r="D24" t="n">
-        <v>96038.64398570209</v>
+        <v>97320.1414798062</v>
       </c>
       <c r="E24" t="n">
-        <v>300.000000000003</v>
+        <v>300</v>
       </c>
       <c r="F24" t="n">
         <v>5840</v>
       </c>
       <c r="G24" t="n">
-        <v>165788.6921700893</v>
+        <v>165831.1081875783</v>
       </c>
       <c r="H24" t="n">
-        <v>922830624.6806713</v>
+        <v>960784253.9729849</v>
       </c>
       <c r="I24" t="n">
-        <v>1825065536.356508</v>
+        <v>1874876980.609802</v>
       </c>
       <c r="J24" t="n">
-        <v>8000.000000000654</v>
+        <v>8000.000000005286</v>
       </c>
       <c r="K24" t="n">
-        <v>208.7346227325821</v>
+        <v>274.879107492725</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>193.1833542678437</v>
+        <v>219.7151112982054</v>
       </c>
       <c r="N24" t="n">
-        <v>1062474536.3004</v>
+        <v>1113656689.283689</v>
       </c>
       <c r="O24" t="n">
-        <v>208.4644976375642</v>
+        <v>274.7258535063512</v>
       </c>
       <c r="P24" t="n">
-        <v>212.6917192679385</v>
+        <v>278.7228069010092</v>
       </c>
       <c r="Q24" t="n">
-        <v>-7999.999850068378</v>
+        <v>-8000.000000000586</v>
       </c>
       <c r="R24" t="n">
         <v>-0</v>
       </c>
       <c r="S24" t="n">
-        <v>342.7041237117794</v>
+        <v>330.8833782839198</v>
       </c>
       <c r="T24" t="n">
-        <v>-2416905809.831253</v>
+        <v>-2066934459.44332</v>
       </c>
       <c r="U24" t="n">
-        <v>-231887.3534135243</v>
+        <v>-229113.5485725754</v>
       </c>
       <c r="V24" t="n">
-        <v>-3349823014.467197</v>
+        <v>-2991219134.990213</v>
       </c>
       <c r="W24" t="n">
-        <v>-809033391.6013098</v>
+        <v>509798563.8270675</v>
       </c>
       <c r="X24" t="n">
-        <v>-137215.096183007</v>
+        <v>-121856.6616465555</v>
       </c>
       <c r="Y24" t="n">
-        <v>-56446.0142792917</v>
+        <v>39856.17981246336</v>
       </c>
       <c r="Z24" t="n">
-        <v>-1993456635.800033</v>
+        <v>-1620304624.939273</v>
       </c>
       <c r="AA24" t="n">
-        <v>192.5850197608781</v>
+        <v>219.8242444963321</v>
       </c>
       <c r="AB24" t="n">
-        <v>185.9470991324136</v>
+        <v>217.5256971996093</v>
       </c>
       <c r="AC24" t="n">
-        <v>775203724210.1726</v>
+        <v>7.722145223759881e+23</v>
       </c>
     </row>
     <row r="25">
@@ -2627,88 +2627,88 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1594047306.534796</v>
+        <v>1638117218.219807</v>
       </c>
       <c r="C25" t="n">
-        <v>189931.4337253125</v>
+        <v>189908.4596780018</v>
       </c>
       <c r="D25" t="n">
-        <v>96037.98766196007</v>
+        <v>97320.14148243603</v>
       </c>
       <c r="E25" t="n">
-        <v>299.9999999999999</v>
+        <v>300</v>
       </c>
       <c r="F25" t="n">
         <v>6205</v>
       </c>
       <c r="G25" t="n">
-        <v>165789.604059155</v>
+        <v>165831.1081909532</v>
       </c>
       <c r="H25" t="n">
-        <v>922864802.4972596</v>
+        <v>960784254.0094813</v>
       </c>
       <c r="I25" t="n">
-        <v>1825144971.19905</v>
+        <v>1874876980.628798</v>
       </c>
       <c r="J25" t="n">
-        <v>8000.00000000205</v>
+        <v>7999.999999998416</v>
       </c>
       <c r="K25" t="n">
-        <v>208.8394804902948</v>
+        <v>274.8791075202718</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>193.1466776310451</v>
+        <v>219.715111315626</v>
       </c>
       <c r="N25" t="n">
-        <v>1062556243.200839</v>
+        <v>1113656689.303858</v>
       </c>
       <c r="O25" t="n">
-        <v>208.569408276743</v>
+        <v>274.7258535339254</v>
       </c>
       <c r="P25" t="n">
-        <v>212.7966014616115</v>
+        <v>278.7228069286895</v>
       </c>
       <c r="Q25" t="n">
-        <v>-7999.99999999911</v>
+        <v>-8000.000000000031</v>
       </c>
       <c r="R25" t="n">
         <v>-0</v>
       </c>
       <c r="S25" t="n">
-        <v>341.9703133844664</v>
+        <v>330.8833778240883</v>
       </c>
       <c r="T25" t="n">
-        <v>-2393734269.914541</v>
+        <v>-2066934444.998419</v>
       </c>
       <c r="U25" t="n">
-        <v>-231776.5296131069</v>
+        <v>-229113.5483746681</v>
       </c>
       <c r="V25" t="n">
-        <v>-3326451770.666463</v>
+        <v>-2991219119.835659</v>
       </c>
       <c r="W25" t="n">
-        <v>-808610801.4577742</v>
+        <v>509798548.4828541</v>
       </c>
       <c r="X25" t="n">
-        <v>-137148.5963216031</v>
+        <v>-121856.6617821733</v>
       </c>
       <c r="Y25" t="n">
-        <v>-56783.30834713403</v>
+        <v>39856.17877539066</v>
       </c>
       <c r="Z25" t="n">
-        <v>-1979523244.204522</v>
+        <v>-1620304621.166251</v>
       </c>
       <c r="AA25" t="n">
-        <v>192.5421735073977</v>
+        <v>219.8242445147134</v>
       </c>
       <c r="AB25" t="n">
-        <v>185.8374299056978</v>
+        <v>217.5256972014721</v>
       </c>
       <c r="AC25" t="n">
-        <v>775206875129.126</v>
+        <v>7.722145223759869e+23</v>
       </c>
     </row>
     <row r="26">
@@ -2716,88 +2716,88 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1594121586.520545</v>
+        <v>1638117218.254619</v>
       </c>
       <c r="C26" t="n">
-        <v>189931.3711415348</v>
+        <v>189908.4596780018</v>
       </c>
       <c r="D26" t="n">
-        <v>96037.50056374699</v>
+        <v>97320.14148439163</v>
       </c>
       <c r="E26" t="n">
-        <v>300.0000000000019</v>
+        <v>300</v>
       </c>
       <c r="F26" t="n">
         <v>6570</v>
       </c>
       <c r="G26" t="n">
-        <v>165790.3374705074</v>
+        <v>165831.1081933456</v>
       </c>
       <c r="H26" t="n">
-        <v>922899022.5171376</v>
+        <v>960784254.0353434</v>
       </c>
       <c r="I26" t="n">
-        <v>1825221304.192351</v>
+        <v>1874876980.641592</v>
       </c>
       <c r="J26" t="n">
-        <v>7999.999999999079</v>
+        <v>7999.999999998287</v>
       </c>
       <c r="K26" t="n">
-        <v>208.9402558605168</v>
+        <v>274.8791075374027</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>193.1066314531755</v>
+        <v>219.7151113304238</v>
       </c>
       <c r="N26" t="n">
-        <v>1062634757.598588</v>
+        <v>1113656689.316987</v>
       </c>
       <c r="O26" t="n">
-        <v>208.6702223203111</v>
+        <v>274.7258535510722</v>
       </c>
       <c r="P26" t="n">
-        <v>212.8973943891827</v>
+        <v>278.7228069459153</v>
       </c>
       <c r="Q26" t="n">
-        <v>-7999.999999144108</v>
+        <v>-7999.999999996508</v>
       </c>
       <c r="R26" t="n">
         <v>-0</v>
       </c>
       <c r="S26" t="n">
-        <v>341.2238556787202</v>
+        <v>330.8833776194696</v>
       </c>
       <c r="T26" t="n">
-        <v>-2370259840.69723</v>
+        <v>-2066934438.575157</v>
       </c>
       <c r="U26" t="n">
-        <v>-231652.3035914631</v>
+        <v>-229113.5482865909</v>
       </c>
       <c r="V26" t="n">
-        <v>-3302720020.155505</v>
+        <v>-2991219113.096411</v>
       </c>
       <c r="W26" t="n">
-        <v>-808112588.4526892</v>
+        <v>509798541.6916575</v>
       </c>
       <c r="X26" t="n">
-        <v>-137074.7158709482</v>
+        <v>-121856.6618426993</v>
       </c>
       <c r="Y26" t="n">
-        <v>-57122.97055955424</v>
+        <v>39856.17831821607</v>
       </c>
       <c r="Z26" t="n">
-        <v>-1965365789.138683</v>
+        <v>-1620304619.567823</v>
       </c>
       <c r="AA26" t="n">
-        <v>192.4952840830139</v>
+        <v>219.8242445298939</v>
       </c>
       <c r="AB26" t="n">
-        <v>185.7219001389313</v>
+        <v>217.5256972094852</v>
       </c>
       <c r="AC26" t="n">
-        <v>775209960736.785</v>
+        <v>7.722145223759861e+23</v>
       </c>
     </row>
     <row r="27">
@@ -2805,88 +2805,88 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1594191973.257136</v>
+        <v>1638117218.277378</v>
       </c>
       <c r="C27" t="n">
-        <v>189931.3114669846</v>
+        <v>189908.4596780018</v>
       </c>
       <c r="D27" t="n">
-        <v>96037.13996956153</v>
+        <v>97320.14148577137</v>
       </c>
       <c r="E27" t="n">
-        <v>300.0000000000016</v>
+        <v>300</v>
       </c>
       <c r="F27" t="n">
         <v>6935</v>
       </c>
       <c r="G27" t="n">
-        <v>165790.9355274301</v>
+        <v>165831.1081949603</v>
       </c>
       <c r="H27" t="n">
-        <v>922932957.8663001</v>
+        <v>960784254.0529563</v>
       </c>
       <c r="I27" t="n">
-        <v>1825294698.509697</v>
+        <v>1874876980.649382</v>
       </c>
       <c r="J27" t="n">
-        <v>7999.999999998419</v>
+        <v>7999.999999998214</v>
       </c>
       <c r="K27" t="n">
-        <v>209.0371618107421</v>
+        <v>274.8791075478274</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>193.0633864742727</v>
+        <v>219.7151113405452</v>
       </c>
       <c r="N27" t="n">
-        <v>1062710247.554091</v>
+        <v>1113656689.324981</v>
       </c>
       <c r="O27" t="n">
-        <v>208.7671563465163</v>
+        <v>274.7258535615055</v>
       </c>
       <c r="P27" t="n">
-        <v>212.9943127787504</v>
+        <v>278.7228069564043</v>
       </c>
       <c r="Q27" t="n">
-        <v>-8000.000012398779</v>
+        <v>-7999.999999995691</v>
       </c>
       <c r="R27" t="n">
         <v>-0</v>
       </c>
       <c r="S27" t="n">
-        <v>340.4703729919626</v>
+        <v>330.8833775206889</v>
       </c>
       <c r="T27" t="n">
-        <v>-2346503390.870438</v>
+        <v>-2066934435.476786</v>
       </c>
       <c r="U27" t="n">
-        <v>-231517.3008674852</v>
+        <v>-229113.5482441313</v>
       </c>
       <c r="V27" t="n">
-        <v>-3278660546.38332</v>
+        <v>-2991219109.845674</v>
       </c>
       <c r="W27" t="n">
-        <v>-807550276.027663</v>
+        <v>509798538.4140989</v>
       </c>
       <c r="X27" t="n">
-        <v>-136990.1002497653</v>
+        <v>-121856.6618712363</v>
       </c>
       <c r="Y27" t="n">
-        <v>-57465.71026852429</v>
+        <v>39856.17809847642</v>
       </c>
       <c r="Z27" t="n">
-        <v>-1950950027.693852</v>
+        <v>-1620304618.81542</v>
       </c>
       <c r="AA27" t="n">
-        <v>192.4447555149711</v>
+        <v>219.8242445401718</v>
       </c>
       <c r="AB27" t="n">
-        <v>185.6008670096696</v>
+        <v>217.5256972163828</v>
       </c>
       <c r="AC27" t="n">
-        <v>775212980740.3206</v>
+        <v>7.722145223759877e+23</v>
       </c>
     </row>
     <row r="28">
@@ -2894,88 +2894,88 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1594258912.457291</v>
+        <v>1638117218.291818</v>
       </c>
       <c r="C28" t="n">
-        <v>189931.254520968</v>
+        <v>189908.4596781601</v>
       </c>
       <c r="D28" t="n">
-        <v>96036.87385697415</v>
+        <v>97320.14148670343</v>
       </c>
       <c r="E28" t="n">
-        <v>300.0000000000013</v>
+        <v>300</v>
       </c>
       <c r="F28" t="n">
         <v>7300</v>
       </c>
       <c r="G28" t="n">
-        <v>165791.4306574641</v>
+        <v>165831.108196012</v>
       </c>
       <c r="H28" t="n">
-        <v>922966378.5377636</v>
+        <v>960784254.0645339</v>
       </c>
       <c r="I28" t="n">
-        <v>1825365305.855192</v>
+        <v>1874876980.655581</v>
       </c>
       <c r="J28" t="n">
-        <v>7999.999999998094</v>
+        <v>8000.000000004835</v>
       </c>
       <c r="K28" t="n">
-        <v>209.1303966844357</v>
+        <v>274.8791075540283</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>193.0171812550399</v>
+        <v>219.7151113469577</v>
       </c>
       <c r="N28" t="n">
-        <v>1062782869.308041</v>
+        <v>1113656689.330667</v>
       </c>
       <c r="O28" t="n">
-        <v>208.8604114046885</v>
+        <v>274.7258535677107</v>
       </c>
       <c r="P28" t="n">
-        <v>213.0875562928291</v>
+        <v>278.7228069626471</v>
       </c>
       <c r="Q28" t="n">
-        <v>-7999.999982380461</v>
+        <v>-7999.999999998867</v>
       </c>
       <c r="R28" t="n">
         <v>-0</v>
       </c>
       <c r="S28" t="n">
-        <v>339.7117856204179</v>
+        <v>330.883377469649</v>
       </c>
       <c r="T28" t="n">
-        <v>-2322527403.610735</v>
+        <v>-2066934433.877684</v>
       </c>
       <c r="U28" t="n">
-        <v>-231371.1978678883</v>
+        <v>-229113.5482223092</v>
       </c>
       <c r="V28" t="n">
-        <v>-3254333584.113418</v>
+        <v>-2991219108.16829</v>
       </c>
       <c r="W28" t="n">
-        <v>-806927748.3782816</v>
+        <v>509798536.7169437</v>
       </c>
       <c r="X28" t="n">
-        <v>-136893.4075975366</v>
+        <v>-121856.6618853571</v>
       </c>
       <c r="Y28" t="n">
-        <v>-57810.91180327064</v>
+        <v>39856.17798504823</v>
       </c>
       <c r="Z28" t="n">
-        <v>-1936305190.692454</v>
+        <v>-1620304618.426487</v>
       </c>
       <c r="AA28" t="n">
-        <v>192.3908890101084</v>
+        <v>219.824244546651</v>
       </c>
       <c r="AB28" t="n">
-        <v>185.4746463401486</v>
+        <v>217.5256972211461</v>
       </c>
       <c r="AC28" t="n">
-        <v>775215935046.988</v>
+        <v>7.72214522375989e+23</v>
       </c>
     </row>
   </sheetData>

--- a/time_data.xlsx
+++ b/time_data.xlsx
@@ -580,88 +580,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1297027045.000659</v>
+        <v>2301704091.467854</v>
       </c>
       <c r="C2" t="n">
-        <v>189908.1959042078</v>
+        <v>189937.5572426114</v>
       </c>
       <c r="D2" t="n">
-        <v>96254.82575384334</v>
+        <v>95518.9214075198</v>
       </c>
       <c r="E2" t="n">
-        <v>300.0000000489011</v>
+        <v>300.0000003543927</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
       </c>
       <c r="G2" t="n">
-        <v>138521.1275522048</v>
+        <v>214582.793023539</v>
       </c>
       <c r="H2" t="n">
-        <v>933943643.9228593</v>
+        <v>946985883.4028924</v>
       </c>
       <c r="I2" t="n">
-        <v>1873247140.517883</v>
+        <v>1818917476.516561</v>
       </c>
       <c r="J2" t="n">
-        <v>7999.999967641432</v>
+        <v>7999.999737381182</v>
       </c>
       <c r="K2" t="n">
-        <v>272.2979777095209</v>
+        <v>201.2402087160378</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>221.2196795818502</v>
+        <v>198.8292199786039</v>
       </c>
       <c r="N2" t="n">
-        <v>1111985350.843881</v>
+        <v>1056147220.344065</v>
       </c>
       <c r="O2" t="n">
-        <v>272.3165867818892</v>
+        <v>201.0930145086218</v>
       </c>
       <c r="P2" t="n">
-        <v>276.534861810195</v>
+        <v>204.5989520439686</v>
       </c>
       <c r="Q2" t="n">
-        <v>-7999.999999994827</v>
+        <v>-7999.999998684001</v>
       </c>
       <c r="R2" t="n">
         <v>-0</v>
       </c>
       <c r="S2" t="n">
-        <v>353.1673862612304</v>
+        <v>350.0193362938265</v>
       </c>
       <c r="T2" t="n">
-        <v>-2767692569.521341</v>
+        <v>-2653486184.020474</v>
       </c>
       <c r="U2" t="n">
-        <v>-233214.4521268219</v>
+        <v>-232734.3830756952</v>
       </c>
       <c r="V2" t="n">
-        <v>-3701336992.471466</v>
+        <v>-3586915390.567501</v>
       </c>
       <c r="W2" t="n">
-        <v>1479927541.079901</v>
+        <v>1318772283.922191</v>
       </c>
       <c r="X2" t="n">
-        <v>-118523.4505256156</v>
+        <v>-118253.7886456332</v>
       </c>
       <c r="Y2" t="n">
-        <v>93248.66624692168</v>
+        <v>85567.67677130063</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1881210649.109666</v>
+        <v>-1822697562.295165</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.2587490695226</v>
+        <v>198.8690732775218</v>
       </c>
       <c r="AB2" t="n">
-        <v>219.5843591729281</v>
+        <v>197.1309041686063</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.722145223759891e+23</v>
+        <v>7.721736646188219e+23</v>
       </c>
     </row>
     <row r="3">
@@ -669,88 +669,88 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1645982130.230763</v>
+        <v>1622872403.939708</v>
       </c>
       <c r="C3" t="n">
-        <v>189908.2060337035</v>
+        <v>189936.9401669757</v>
       </c>
       <c r="D3" t="n">
-        <v>95470.51147283516</v>
+        <v>94794.05895191416</v>
       </c>
       <c r="E3" t="n">
-        <v>299.999999981775</v>
+        <v>299.9999999293555</v>
       </c>
       <c r="F3" t="n">
         <v>0.009000000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>166418.3615688094</v>
+        <v>167950.9957373941</v>
       </c>
       <c r="H3" t="n">
-        <v>941723796.6285449</v>
+        <v>908048389.4428641</v>
       </c>
       <c r="I3" t="n">
-        <v>1873298137.274274</v>
+        <v>1819500963.716658</v>
       </c>
       <c r="J3" t="n">
-        <v>8000.000033924632</v>
+        <v>8000.000794625767</v>
       </c>
       <c r="K3" t="n">
-        <v>272.7885322911192</v>
+        <v>201.6155718351246</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>220.7810576771143</v>
+        <v>198.4710672156954</v>
       </c>
       <c r="N3" t="n">
-        <v>1112037637.998407</v>
+        <v>1056747847.369511</v>
       </c>
       <c r="O3" t="n">
-        <v>272.6808233917222</v>
+        <v>201.4692311827651</v>
       </c>
       <c r="P3" t="n">
-        <v>276.6032340211499</v>
+        <v>205.3645194824617</v>
       </c>
       <c r="Q3" t="n">
-        <v>-7999.99989330403</v>
+        <v>-7999.99992372086</v>
       </c>
       <c r="R3" t="n">
         <v>-0</v>
       </c>
       <c r="S3" t="n">
-        <v>353.1617010469548</v>
+        <v>350.0145583832831</v>
       </c>
       <c r="T3" t="n">
-        <v>-2767201152.7618</v>
+        <v>-2653085419.896025</v>
       </c>
       <c r="U3" t="n">
-        <v>-233207.0334469421</v>
+        <v>-232728.5116841274</v>
       </c>
       <c r="V3" t="n">
-        <v>-3700826408.730254</v>
+        <v>-3586499666.564847</v>
       </c>
       <c r="W3" t="n">
-        <v>1496800860.59791</v>
+        <v>1337136059.26702</v>
       </c>
       <c r="X3" t="n">
-        <v>-119608.2516985398</v>
+        <v>-118847.6382623175</v>
       </c>
       <c r="Y3" t="n">
-        <v>94325.53623310896</v>
+        <v>86770.51775944138</v>
       </c>
       <c r="Z3" t="n">
-        <v>-1898310027.159961</v>
+        <v>-1831752366.866054</v>
       </c>
       <c r="AA3" t="n">
-        <v>220.8504964416311</v>
+        <v>198.5371857658498</v>
       </c>
       <c r="AB3" t="n">
-        <v>219.1610313921791</v>
+        <v>196.7904256438461</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.722145223759891e+23</v>
+        <v>7.721736647628225e+23</v>
       </c>
     </row>
     <row r="4">
@@ -758,88 +758,88 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1644917320.907195</v>
+        <v>1594807174.090977</v>
       </c>
       <c r="C4" t="n">
-        <v>189908.2202427622</v>
+        <v>189936.7094301655</v>
       </c>
       <c r="D4" t="n">
-        <v>96260.00061817723</v>
+        <v>96312.4789317309</v>
       </c>
       <c r="E4" t="n">
-        <v>300.0000000644068</v>
+        <v>300.0000000832696</v>
       </c>
       <c r="F4" t="n">
         <v>0.07300000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>166479.9749168757</v>
+        <v>166186.2878252715</v>
       </c>
       <c r="H4" t="n">
-        <v>949912913.4826626</v>
+        <v>923032571.0193998</v>
       </c>
       <c r="I4" t="n">
-        <v>1873463745.067264</v>
+        <v>1819690612.358542</v>
       </c>
       <c r="J4" t="n">
-        <v>7999.999957407374</v>
+        <v>7999.999945564802</v>
       </c>
       <c r="K4" t="n">
-        <v>272.9807636562442</v>
+        <v>201.7721077270814</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>220.575741031519</v>
+        <v>198.282500652219</v>
       </c>
       <c r="N4" t="n">
-        <v>1112207508.577508</v>
+        <v>1056943194.158816</v>
       </c>
       <c r="O4" t="n">
-        <v>272.876353186094</v>
+        <v>201.6622147941977</v>
       </c>
       <c r="P4" t="n">
-        <v>276.8254530205039</v>
+        <v>205.6138194381703</v>
       </c>
       <c r="Q4" t="n">
-        <v>-7999.999985294733</v>
+        <v>-8000.000050588713</v>
       </c>
       <c r="R4" t="n">
         <v>-0</v>
       </c>
       <c r="S4" t="n">
-        <v>353.1618869253905</v>
+        <v>350.0144247925488</v>
       </c>
       <c r="T4" t="n">
-        <v>-2767055073.942044</v>
+        <v>-2652942539.986623</v>
       </c>
       <c r="U4" t="n">
-        <v>-233203.5277355732</v>
+        <v>-232725.4181536677</v>
       </c>
       <c r="V4" t="n">
-        <v>-3700670153.738045</v>
+        <v>-3586348120.538605</v>
       </c>
       <c r="W4" t="n">
-        <v>1498809136.446676</v>
+        <v>1339143246.95152</v>
       </c>
       <c r="X4" t="n">
-        <v>-119735.6563586566</v>
+        <v>-119282.0777404357</v>
       </c>
       <c r="Y4" t="n">
-        <v>94454.80686500913</v>
+        <v>86903.44498453823</v>
       </c>
       <c r="Z4" t="n">
-        <v>-1900282586.169222</v>
+        <v>-1838397867.710843</v>
       </c>
       <c r="AA4" t="n">
-        <v>220.6487798244965</v>
+        <v>198.3568851395959</v>
       </c>
       <c r="AB4" t="n">
-        <v>218.9575523817223</v>
+        <v>196.6038481670641</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.722145223759891e+23</v>
+        <v>7.721736659148205e+23</v>
       </c>
     </row>
     <row r="5">
@@ -847,88 +847,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1645170139.170538</v>
+        <v>1595600567.735093</v>
       </c>
       <c r="C5" t="n">
-        <v>189908.2278313532</v>
+        <v>189936.551371355</v>
       </c>
       <c r="D5" t="n">
-        <v>96295.82086538308</v>
+        <v>96361.43190160795</v>
       </c>
       <c r="E5" t="n">
-        <v>300.0000000098802</v>
+        <v>300.000000005366</v>
       </c>
       <c r="F5" t="n">
         <v>0.585</v>
       </c>
       <c r="G5" t="n">
-        <v>166516.7017459125</v>
+        <v>166286.6384389981</v>
       </c>
       <c r="H5" t="n">
-        <v>950265050.5291371</v>
+        <v>923536402.9905868</v>
       </c>
       <c r="I5" t="n">
-        <v>1873528615.998589</v>
+        <v>1819835694.408453</v>
       </c>
       <c r="J5" t="n">
-        <v>7999.999993464632</v>
+        <v>7999.999996494983</v>
       </c>
       <c r="K5" t="n">
-        <v>273.063798160397</v>
+        <v>201.9542611006286</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>220.5445874017003</v>
+        <v>198.1341263401132</v>
       </c>
       <c r="N5" t="n">
-        <v>1112274041.248726</v>
+        <v>1057092558.511383</v>
       </c>
       <c r="O5" t="n">
-        <v>272.9613909196758</v>
+        <v>201.8502071170784</v>
       </c>
       <c r="P5" t="n">
-        <v>276.9124917327899</v>
+        <v>205.8043627263261</v>
       </c>
       <c r="Q5" t="n">
-        <v>-7999.9999743909</v>
+        <v>-7999.999998180875</v>
       </c>
       <c r="R5" t="n">
         <v>-0</v>
       </c>
       <c r="S5" t="n">
-        <v>353.166491136406</v>
+        <v>350.0157627465231</v>
       </c>
       <c r="T5" t="n">
-        <v>-2767174074.896894</v>
+        <v>-2652872326.879143</v>
       </c>
       <c r="U5" t="n">
-        <v>-233203.0765603946</v>
+        <v>-232722.9912051616</v>
       </c>
       <c r="V5" t="n">
-        <v>-3700786047.076044</v>
+        <v>-3586270617.933785</v>
       </c>
       <c r="W5" t="n">
-        <v>1499067321.512793</v>
+        <v>1337537252.270467</v>
       </c>
       <c r="X5" t="n">
-        <v>-119737.6215971767</v>
+        <v>-119492.9120049403</v>
       </c>
       <c r="Y5" t="n">
-        <v>94467.99899499978</v>
+        <v>86800.27082923545</v>
       </c>
       <c r="Z5" t="n">
-        <v>-1900378065.737215</v>
+        <v>-1841629315.860457</v>
       </c>
       <c r="AA5" t="n">
-        <v>220.617680411325</v>
+        <v>198.2100417883196</v>
       </c>
       <c r="AB5" t="n">
-        <v>218.9265234284707</v>
+        <v>196.4539922398993</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.722145223759891e+23</v>
+        <v>7.721736751308234e+23</v>
       </c>
     </row>
     <row r="6">
@@ -936,88 +936,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1645444306.131836</v>
+        <v>1596127832.792145</v>
       </c>
       <c r="C6" t="n">
-        <v>189908.2609386576</v>
+        <v>189936.279089047</v>
       </c>
       <c r="D6" t="n">
-        <v>96427.97785452945</v>
+        <v>96454.5622177637</v>
       </c>
       <c r="E6" t="n">
-        <v>300.0000000047032</v>
+        <v>300.0000000000407</v>
       </c>
       <c r="F6" t="n">
         <v>4.681</v>
       </c>
       <c r="G6" t="n">
-        <v>166586.3543662303</v>
+        <v>166393.7076242353</v>
       </c>
       <c r="H6" t="n">
-        <v>951584183.0906632</v>
+        <v>924418045.0348964</v>
       </c>
       <c r="I6" t="n">
-        <v>1873800028.376393</v>
+        <v>1820088219.944325</v>
       </c>
       <c r="J6" t="n">
-        <v>7999.999996889042</v>
+        <v>7999.999999971452</v>
       </c>
       <c r="K6" t="n">
-        <v>273.4153016802235</v>
+        <v>202.2711244740698</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>220.5414990789908</v>
+        <v>198.1323698053832</v>
       </c>
       <c r="N6" t="n">
-        <v>1112552403.032818</v>
+        <v>1057352528.582222</v>
       </c>
       <c r="O6" t="n">
-        <v>273.3183047427315</v>
+        <v>202.1761266059884</v>
       </c>
       <c r="P6" t="n">
-        <v>277.2767334654822</v>
+        <v>206.1360871812792</v>
       </c>
       <c r="Q6" t="n">
-        <v>-7999.999999998229</v>
+        <v>-8000.000000001894</v>
       </c>
       <c r="R6" t="n">
         <v>-0</v>
       </c>
       <c r="S6" t="n">
-        <v>353.1940852639729</v>
+        <v>350.0228671358844</v>
       </c>
       <c r="T6" t="n">
-        <v>-2768023857.480707</v>
+        <v>-2653090501.538766</v>
       </c>
       <c r="U6" t="n">
-        <v>-233203.5400824409</v>
+        <v>-232723.3057581575</v>
       </c>
       <c r="V6" t="n">
-        <v>-3701626342.739389</v>
+        <v>-3586487321.358451</v>
       </c>
       <c r="W6" t="n">
-        <v>1500464993.698197</v>
+        <v>1337895567.965259</v>
       </c>
       <c r="X6" t="n">
-        <v>-119737.8590214432</v>
+        <v>-119490.7376841144</v>
       </c>
       <c r="Y6" t="n">
-        <v>94534.87195094963</v>
+        <v>86818.57749430407</v>
       </c>
       <c r="Z6" t="n">
-        <v>-1900810521.426124</v>
+        <v>-1841708130.117573</v>
       </c>
       <c r="AA6" t="n">
-        <v>220.61456422708</v>
+        <v>198.2082585815556</v>
       </c>
       <c r="AB6" t="n">
-        <v>218.9239817853552</v>
+        <v>196.4524059674506</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.72214522375989e+23</v>
+        <v>7.721737488588249e+23</v>
       </c>
     </row>
     <row r="7">
@@ -1025,88 +1025,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1642980084.619646</v>
+        <v>1594574566.776453</v>
       </c>
       <c r="C7" t="n">
-        <v>189908.3509347228</v>
+        <v>189935.7179688067</v>
       </c>
       <c r="D7" t="n">
-        <v>96780.58074503051</v>
+        <v>96698.2696671546</v>
       </c>
       <c r="E7" t="n">
-        <v>300.0000000000334</v>
+        <v>300.0000000027266</v>
       </c>
       <c r="F7" t="n">
         <v>37.449</v>
       </c>
       <c r="G7" t="n">
-        <v>166351.1456465436</v>
+        <v>166250.9383252252</v>
       </c>
       <c r="H7" t="n">
-        <v>955226709.237596</v>
+        <v>926904529.4854841</v>
       </c>
       <c r="I7" t="n">
-        <v>1874360593.759197</v>
+        <v>1820626212.003839</v>
       </c>
       <c r="J7" t="n">
-        <v>7999.999999981207</v>
+        <v>7999.999998217713</v>
       </c>
       <c r="K7" t="n">
-        <v>274.1671828708687</v>
+        <v>202.9743194102185</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>220.5203778940393</v>
+        <v>198.1387233351203</v>
       </c>
       <c r="N7" t="n">
-        <v>1113127244.173966</v>
+        <v>1057906313.161185</v>
       </c>
       <c r="O7" t="n">
-        <v>274.0546248564323</v>
+        <v>202.8714012419382</v>
       </c>
       <c r="P7" t="n">
-        <v>278.0292754065688</v>
+        <v>206.8430331225325</v>
       </c>
       <c r="Q7" t="n">
-        <v>-7999.999999950292</v>
+        <v>-7999.999999994347</v>
       </c>
       <c r="R7" t="n">
         <v>-0</v>
       </c>
       <c r="S7" t="n">
-        <v>353.311958384172</v>
+        <v>350.0331095454151</v>
       </c>
       <c r="T7" t="n">
-        <v>-2771641499.923013</v>
+        <v>-2653411564.568002</v>
       </c>
       <c r="U7" t="n">
-        <v>-233205.376133722</v>
+        <v>-232723.9062814681</v>
       </c>
       <c r="V7" t="n">
-        <v>-3705203121.520826</v>
+        <v>-3586806678.654412</v>
       </c>
       <c r="W7" t="n">
-        <v>1506496099.646032</v>
+        <v>1338396704.691024</v>
       </c>
       <c r="X7" t="n">
-        <v>-119743.7579178711</v>
+        <v>-119491.1412800023</v>
       </c>
       <c r="Y7" t="n">
-        <v>94824.54387123765</v>
+        <v>86843.57743191425</v>
       </c>
       <c r="Z7" t="n">
-        <v>-1902735093.533288</v>
+        <v>-1841873210.35081</v>
       </c>
       <c r="AA7" t="n">
-        <v>220.5934481252418</v>
+        <v>198.2146058680294</v>
       </c>
       <c r="AB7" t="n">
-        <v>218.9052544371791</v>
+        <v>196.4589780610325</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.722145223759889e+23</v>
+        <v>7.721743386828204e+23</v>
       </c>
     </row>
     <row r="8">
@@ -1114,88 +1114,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1639007780.755694</v>
+        <v>1589896122.325871</v>
       </c>
       <c r="C8" t="n">
-        <v>189908.4333496452</v>
+        <v>189935.0854308765</v>
       </c>
       <c r="D8" t="n">
-        <v>97218.8636963178</v>
+        <v>97244.21593067776</v>
       </c>
       <c r="E8" t="n">
-        <v>300</v>
+        <v>300.0000000000005</v>
       </c>
       <c r="F8" t="n">
         <v>299.593</v>
       </c>
       <c r="G8" t="n">
-        <v>165930.8467761178</v>
+        <v>165713.3126614494</v>
       </c>
       <c r="H8" t="n">
-        <v>959726250.1850129</v>
+        <v>932451917.4844937</v>
       </c>
       <c r="I8" t="n">
-        <v>1874762158.252865</v>
+        <v>1821265246.138667</v>
       </c>
       <c r="J8" t="n">
-        <v>7999.999999994588</v>
+        <v>7999.999999998063</v>
       </c>
       <c r="K8" t="n">
-        <v>274.7208713533655</v>
+        <v>203.8352266228098</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>220.1956463684004</v>
+        <v>198.1870758932275</v>
       </c>
       <c r="N8" t="n">
-        <v>1113538971.015703</v>
+        <v>1058563984.419111</v>
       </c>
       <c r="O8" t="n">
-        <v>274.5757138172839</v>
+        <v>203.6892411901651</v>
       </c>
       <c r="P8" t="n">
-        <v>278.5685705037849</v>
+        <v>207.6831464584884</v>
       </c>
       <c r="Q8" t="n">
-        <v>-8000.000000003904</v>
+        <v>-8000.000000000825</v>
       </c>
       <c r="R8" t="n">
         <v>-0</v>
       </c>
       <c r="S8" t="n">
-        <v>345.485973449601</v>
+        <v>350.0410593591773</v>
       </c>
       <c r="T8" t="n">
-        <v>-2528310116.609456</v>
+        <v>-2653692995.751877</v>
       </c>
       <c r="U8" t="n">
-        <v>-232727.4662385818</v>
+        <v>-232725.0940954712</v>
       </c>
       <c r="V8" t="n">
-        <v>-3462979952.340799</v>
+        <v>-3587088822.698692</v>
       </c>
       <c r="W8" t="n">
-        <v>1114988653.324024</v>
+        <v>1338813958.880987</v>
       </c>
       <c r="X8" t="n">
-        <v>-120619.4151290417</v>
+        <v>-119490.9351577513</v>
       </c>
       <c r="Y8" t="n">
-        <v>75355.62286146356</v>
+        <v>86863.76555724861</v>
       </c>
       <c r="Z8" t="n">
-        <v>-1804431516.498555</v>
+        <v>-1841995424.648844</v>
       </c>
       <c r="AA8" t="n">
-        <v>220.2807290447612</v>
+        <v>198.2629558284169</v>
       </c>
       <c r="AB8" t="n">
-        <v>218.4140871454281</v>
+        <v>196.507495728933</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.722145223759914e+23</v>
+        <v>7.721790572748137e+23</v>
       </c>
     </row>
     <row r="9">
@@ -1203,88 +1203,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1638437677.130705</v>
+        <v>1588910240.949615</v>
       </c>
       <c r="C9" t="n">
-        <v>189908.4426724576</v>
+        <v>189934.954352943</v>
       </c>
       <c r="D9" t="n">
-        <v>97280.82061802079</v>
+        <v>97358.8165612036</v>
       </c>
       <c r="E9" t="n">
-        <v>300</v>
+        <v>300.000000001874</v>
       </c>
       <c r="F9" t="n">
         <v>365</v>
       </c>
       <c r="G9" t="n">
-        <v>165870.0083042778</v>
+        <v>165599.2941810294</v>
       </c>
       <c r="H9" t="n">
-        <v>960358508.398275</v>
+        <v>933614777.9331738</v>
       </c>
       <c r="I9" t="n">
-        <v>1874803433.487943</v>
+        <v>1821389361.881546</v>
       </c>
       <c r="J9" t="n">
-        <v>7999.999999997875</v>
+        <v>7999.999998777035</v>
       </c>
       <c r="K9" t="n">
-        <v>274.7787184124179</v>
+        <v>204.0031776747869</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>220.1125588193441</v>
+        <v>198.1986869956819</v>
       </c>
       <c r="N9" t="n">
-        <v>1113581287.751295</v>
+        <v>1058691750.523059</v>
       </c>
       <c r="O9" t="n">
-        <v>274.6286468261501</v>
+        <v>203.8479075242307</v>
       </c>
       <c r="P9" t="n">
-        <v>278.6240122958544</v>
+        <v>207.8464430542946</v>
       </c>
       <c r="Q9" t="n">
-        <v>-8000.000000001884</v>
+        <v>-7999.999999982255</v>
       </c>
       <c r="R9" t="n">
         <v>-0</v>
       </c>
       <c r="S9" t="n">
-        <v>343.3716029063543</v>
+        <v>350.0421716256164</v>
       </c>
       <c r="T9" t="n">
-        <v>-2462049461.009563</v>
+        <v>-2653735969.884396</v>
       </c>
       <c r="U9" t="n">
-        <v>-232461.1225365161</v>
+        <v>-232725.3408666307</v>
       </c>
       <c r="V9" t="n">
-        <v>-3396383937.232882</v>
+        <v>-3587132124.028007</v>
       </c>
       <c r="W9" t="n">
-        <v>1017085026.468192</v>
+        <v>1338874492.070837</v>
       </c>
       <c r="X9" t="n">
-        <v>-120828.830418035</v>
+        <v>-119490.8950950181</v>
       </c>
       <c r="Y9" t="n">
-        <v>70126.03094285732</v>
+        <v>86866.63782903382</v>
       </c>
       <c r="Z9" t="n">
-        <v>-1777606443.988894</v>
+        <v>-1842013092.635761</v>
       </c>
       <c r="AA9" t="n">
-        <v>220.2010449653551</v>
+        <v>198.2745667175482</v>
       </c>
       <c r="AB9" t="n">
-        <v>218.2806219332935</v>
+        <v>196.5191293854818</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.722145223759897e+23</v>
+        <v>7.721802346008134e+23</v>
       </c>
     </row>
     <row r="10">
@@ -1292,88 +1292,88 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1638150911.713346</v>
+        <v>1587663582.998028</v>
       </c>
       <c r="C10" t="n">
-        <v>189908.4543469489</v>
+        <v>189934.4747870606</v>
       </c>
       <c r="D10" t="n">
-        <v>97314.60930960241</v>
+        <v>97532.83132166712</v>
       </c>
       <c r="E10" t="n">
-        <v>300</v>
+        <v>300.0000000000005</v>
       </c>
       <c r="F10" t="n">
         <v>730</v>
       </c>
       <c r="G10" t="n">
-        <v>165836.5331826608</v>
+        <v>165426.8865558724</v>
       </c>
       <c r="H10" t="n">
-        <v>960717971.5648407</v>
+        <v>935523551.2485435</v>
       </c>
       <c r="I10" t="n">
-        <v>1874854157.242187</v>
+        <v>1821852378.701968</v>
       </c>
       <c r="J10" t="n">
-        <v>8000.000000003607</v>
+        <v>7999.999999999031</v>
       </c>
       <c r="K10" t="n">
-        <v>274.8482234860267</v>
+        <v>204.6196326277939</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>219.8764031521979</v>
+        <v>198.2595728347278</v>
       </c>
       <c r="N10" t="n">
-        <v>1113633290.64274</v>
+        <v>1059168351.639802</v>
       </c>
       <c r="O10" t="n">
-        <v>274.6954180023741</v>
+        <v>204.4502239022837</v>
       </c>
       <c r="P10" t="n">
-        <v>278.6921480381439</v>
+        <v>208.4557848759094</v>
       </c>
       <c r="Q10" t="n">
-        <v>-7999.999962708788</v>
+        <v>-8000.000000001563</v>
       </c>
       <c r="R10" t="n">
         <v>-0</v>
       </c>
       <c r="S10" t="n">
-        <v>336.0105123274796</v>
+        <v>350.0446855724015</v>
       </c>
       <c r="T10" t="n">
-        <v>-2230031523.069333</v>
+        <v>-2653858855.221933</v>
       </c>
       <c r="U10" t="n">
-        <v>-230915.0005066866</v>
+        <v>-232726.4746359298</v>
       </c>
       <c r="V10" t="n">
-        <v>-3160371146.069261</v>
+        <v>-3587257374.334864</v>
       </c>
       <c r="W10" t="n">
-        <v>702681839.2239499</v>
+        <v>1339018094.088199</v>
       </c>
       <c r="X10" t="n">
-        <v>-121467.3046907853</v>
+        <v>-119491.2283917872</v>
       </c>
       <c r="Y10" t="n">
-        <v>52088.46189915038</v>
+        <v>86873.1571424609</v>
       </c>
       <c r="Z10" t="n">
-        <v>-1684497974.146901</v>
+        <v>-1842069784.409617</v>
       </c>
       <c r="AA10" t="n">
-        <v>219.9760741928163</v>
+        <v>198.3354539546903</v>
       </c>
       <c r="AB10" t="n">
-        <v>217.8471613181465</v>
+        <v>196.5800629218948</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.722145223759842e+23</v>
+        <v>7.721868046008113e+23</v>
       </c>
     </row>
     <row r="11">
@@ -1381,88 +1381,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1638119832.671758</v>
+        <v>1587604031.485482</v>
       </c>
       <c r="C11" t="n">
-        <v>189908.4579611416</v>
+        <v>189934.0605013189</v>
       </c>
       <c r="D11" t="n">
-        <v>97319.19667822584</v>
+        <v>97578.51273588382</v>
       </c>
       <c r="E11" t="n">
-        <v>300</v>
+        <v>300.0000000000003</v>
       </c>
       <c r="F11" t="n">
         <v>1095</v>
       </c>
       <c r="G11" t="n">
-        <v>165832.0196405954</v>
+        <v>165382.5465403867</v>
       </c>
       <c r="H11" t="n">
-        <v>960771180.3845469</v>
+        <v>936177426.2434769</v>
       </c>
       <c r="I11" t="n">
-        <v>1874869652.607309</v>
+        <v>1822268287.09318</v>
       </c>
       <c r="J11" t="n">
-        <v>8000.000000004366</v>
+        <v>7999.999999998092</v>
       </c>
       <c r="K11" t="n">
-        <v>274.8692252380038</v>
+        <v>205.1690506728682</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>219.7753049471667</v>
+        <v>198.3149081992214</v>
       </c>
       <c r="N11" t="n">
-        <v>1113649176.594545</v>
+        <v>1059596403.318733</v>
       </c>
       <c r="O11" t="n">
-        <v>274.716047813099</v>
+        <v>204.9959181948808</v>
       </c>
       <c r="P11" t="n">
-        <v>278.7129630598195</v>
+        <v>209.0033232610167</v>
       </c>
       <c r="Q11" t="n">
-        <v>-7999.999999914563</v>
+        <v>-7999.999999987781</v>
       </c>
       <c r="R11" t="n">
         <v>-0</v>
       </c>
       <c r="S11" t="n">
-        <v>332.8112802272023</v>
+        <v>350.0445658765188</v>
       </c>
       <c r="T11" t="n">
-        <v>-2128362720.592114</v>
+        <v>-2653896309.052856</v>
       </c>
       <c r="U11" t="n">
-        <v>-229874.3823160155</v>
+        <v>-232727.3889587497</v>
       </c>
       <c r="V11" t="n">
-        <v>-3055299600.858873</v>
+        <v>-3587297447.809886</v>
       </c>
       <c r="W11" t="n">
-        <v>579676382.8136194</v>
+        <v>1339018283.014689</v>
       </c>
       <c r="X11" t="n">
-        <v>-121710.9920327452</v>
+        <v>-119492.4401634173</v>
       </c>
       <c r="Y11" t="n">
-        <v>44409.88763253213</v>
+        <v>86872.79073085127</v>
       </c>
       <c r="Z11" t="n">
-        <v>-1644282769.946337</v>
+        <v>-1842106857.135553</v>
       </c>
       <c r="AA11" t="n">
-        <v>219.8805539218287</v>
+        <v>198.3907969534561</v>
       </c>
       <c r="AB11" t="n">
-        <v>217.6484947823753</v>
+        <v>196.6353928823096</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.722145223759851e+23</v>
+        <v>7.721933746008143e+23</v>
       </c>
     </row>
     <row r="12">
@@ -1470,88 +1470,88 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1638116965.670097</v>
+        <v>1587963780.640186</v>
       </c>
       <c r="C12" t="n">
-        <v>189908.4591400681</v>
+        <v>189933.6761921632</v>
       </c>
       <c r="D12" t="n">
-        <v>97319.9543107692</v>
+        <v>97579.01515029844</v>
       </c>
       <c r="E12" t="n">
-        <v>300</v>
+        <v>300.0000000000002</v>
       </c>
       <c r="F12" t="n">
         <v>1460</v>
       </c>
       <c r="G12" t="n">
-        <v>165831.2850807778</v>
+        <v>165383.3055157282</v>
       </c>
       <c r="H12" t="n">
-        <v>960781233.546371</v>
+        <v>936389977.3717765</v>
       </c>
       <c r="I12" t="n">
-        <v>1874874686.806985</v>
+        <v>1822668949.217469</v>
       </c>
       <c r="J12" t="n">
-        <v>8000.000000001006</v>
+        <v>8000.000000002953</v>
       </c>
       <c r="K12" t="n">
-        <v>274.8760185807608</v>
+        <v>205.6967258819429</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>219.7362647982301</v>
+        <v>198.3649131257334</v>
       </c>
       <c r="N12" t="n">
-        <v>1113654337.672801</v>
+        <v>1060008710.730768</v>
       </c>
       <c r="O12" t="n">
-        <v>274.7227797516738</v>
+        <v>205.523536939643</v>
       </c>
       <c r="P12" t="n">
-        <v>278.7197255883726</v>
+        <v>209.5309621749099</v>
       </c>
       <c r="Q12" t="n">
-        <v>-7999.999999998697</v>
+        <v>-7999.999999963099</v>
       </c>
       <c r="R12" t="n">
         <v>-0</v>
       </c>
       <c r="S12" t="n">
-        <v>331.5627072033802</v>
+        <v>350.0330601147921</v>
       </c>
       <c r="T12" t="n">
-        <v>-2088677735.34479</v>
+        <v>-2653578270.344156</v>
       </c>
       <c r="U12" t="n">
-        <v>-229392.4107496117</v>
+        <v>-232727.6606863944</v>
       </c>
       <c r="V12" t="n">
-        <v>-3013944223.784164</v>
+        <v>-3586983988.98687</v>
       </c>
       <c r="W12" t="n">
-        <v>534082702.8284442</v>
+        <v>1338410661.574681</v>
       </c>
       <c r="X12" t="n">
-        <v>-121804.700090125</v>
+        <v>-119496.8465419341</v>
       </c>
       <c r="Y12" t="n">
-        <v>41455.03399712605</v>
+        <v>86842.9075718613</v>
       </c>
       <c r="Z12" t="n">
-        <v>-1628775691.82975</v>
+        <v>-1842048988.215391</v>
       </c>
       <c r="AA12" t="n">
-        <v>219.8439362478236</v>
+        <v>198.4408313842888</v>
       </c>
       <c r="AB12" t="n">
-        <v>217.5692731496814</v>
+        <v>196.6851578016043</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.722145223759908e+23</v>
+        <v>7.721999446008132e+23</v>
       </c>
     </row>
     <row r="13">
@@ -1559,88 +1559,88 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1638117002.689451</v>
+        <v>1588447853.027041</v>
       </c>
       <c r="C13" t="n">
-        <v>189908.45951621</v>
+        <v>189933.3109533759</v>
       </c>
       <c r="D13" t="n">
-        <v>97320.0992440589</v>
+        <v>97566.08511060898</v>
       </c>
       <c r="E13" t="n">
-        <v>300</v>
+        <v>300.0000000000002</v>
       </c>
       <c r="F13" t="n">
         <v>1825</v>
       </c>
       <c r="G13" t="n">
-        <v>165831.1472351316</v>
+        <v>165397.4815352203</v>
       </c>
       <c r="H13" t="n">
-        <v>960783484.4950441</v>
+        <v>936470929.8866712</v>
       </c>
       <c r="I13" t="n">
-        <v>1874876291.052327</v>
+        <v>1823064589.923323</v>
       </c>
       <c r="J13" t="n">
-        <v>7999.999999998149</v>
+        <v>7999.999999997287</v>
       </c>
       <c r="K13" t="n">
-        <v>274.8781794894371</v>
+        <v>206.2174055205066</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>219.7220994952846</v>
+        <v>198.4094127501665</v>
       </c>
       <c r="N13" t="n">
-        <v>1113655982.348866</v>
+        <v>1060415799.837387</v>
       </c>
       <c r="O13" t="n">
-        <v>274.7249289164653</v>
+        <v>206.0452508753175</v>
       </c>
       <c r="P13" t="n">
-        <v>278.7218806054808</v>
+        <v>210.0521540053675</v>
       </c>
       <c r="Q13" t="n">
-        <v>-7999.999992645475</v>
+        <v>-7999.999999791167</v>
       </c>
       <c r="R13" t="n">
         <v>-0</v>
       </c>
       <c r="S13" t="n">
-        <v>331.1091471680191</v>
+        <v>349.9780644661387</v>
       </c>
       <c r="T13" t="n">
-        <v>-2074206671.136754</v>
+        <v>-2651912095.982894</v>
       </c>
       <c r="U13" t="n">
-        <v>-229206.929832748</v>
+        <v>-232725.7325181002</v>
       </c>
       <c r="V13" t="n">
-        <v>-2998820233.505341</v>
+        <v>-3585330623.455015</v>
       </c>
       <c r="W13" t="n">
-        <v>517903575.2936197</v>
+        <v>1335530014.166425</v>
       </c>
       <c r="X13" t="n">
-        <v>-121837.3265373989</v>
+        <v>-119509.9704178428</v>
       </c>
       <c r="Y13" t="n">
-        <v>40392.6813652114</v>
+        <v>86701.70651254227</v>
       </c>
       <c r="Z13" t="n">
-        <v>-1623119151.685786</v>
+        <v>-1841548329.430334</v>
       </c>
       <c r="AA13" t="n">
-        <v>219.8307555145053</v>
+        <v>198.4854240584376</v>
       </c>
       <c r="AB13" t="n">
-        <v>217.5402507833685</v>
+        <v>196.7285075283121</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.72214522375984e+23</v>
+        <v>7.722065146008159e+23</v>
       </c>
     </row>
     <row r="14">
@@ -1648,88 +1648,88 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1638117137.987327</v>
+        <v>1588940136.126462</v>
       </c>
       <c r="C14" t="n">
-        <v>189908.459631459</v>
+        <v>189932.9520007978</v>
       </c>
       <c r="D14" t="n">
-        <v>97320.13118203791</v>
+        <v>97552.09372550307</v>
       </c>
       <c r="E14" t="n">
-        <v>300</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="F14" t="n">
         <v>2190</v>
       </c>
       <c r="G14" t="n">
-        <v>165831.1176085571</v>
+        <v>165412.714668668</v>
       </c>
       <c r="H14" t="n">
-        <v>960784050.728711</v>
+        <v>936540427.1925001</v>
       </c>
       <c r="I14" t="n">
-        <v>1874876781.903982</v>
+        <v>1823457952.89307</v>
       </c>
       <c r="J14" t="n">
-        <v>8000.000000002035</v>
+        <v>8000.000000002111</v>
       </c>
       <c r="K14" t="n">
-        <v>274.8788401504227</v>
+        <v>206.7352651417632</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>219.7172742468732</v>
+        <v>198.4476361620016</v>
       </c>
       <c r="N14" t="n">
-        <v>1113656485.570475</v>
+        <v>1060820531.288419</v>
       </c>
       <c r="O14" t="n">
-        <v>274.7255869972986</v>
+        <v>206.5642312081316</v>
       </c>
       <c r="P14" t="n">
-        <v>278.7225399760665</v>
+        <v>210.5705693529636</v>
       </c>
       <c r="Q14" t="n">
-        <v>-7999.999999974917</v>
+        <v>-7999.999999254083</v>
       </c>
       <c r="R14" t="n">
         <v>-0</v>
       </c>
       <c r="S14" t="n">
-        <v>330.954450918499</v>
+        <v>349.8046799424156</v>
       </c>
       <c r="T14" t="n">
-        <v>-2069225240.644368</v>
+        <v>-2646567857.59072</v>
       </c>
       <c r="U14" t="n">
-        <v>-229143.0867278312</v>
+        <v>-232717.9350817156</v>
       </c>
       <c r="V14" t="n">
-        <v>-2993614069.013251</v>
+        <v>-3580022084.469406</v>
       </c>
       <c r="W14" t="n">
-        <v>512342302.6736627</v>
+        <v>1326599932.846907</v>
       </c>
       <c r="X14" t="n">
-        <v>-121850.9433803057</v>
+        <v>-119538.4724817774</v>
       </c>
       <c r="Y14" t="n">
-        <v>40024.75198781868</v>
+        <v>86262.02793597619</v>
       </c>
       <c r="Z14" t="n">
-        <v>-1621197691.100609</v>
+        <v>-1839632078.696856</v>
       </c>
       <c r="AA14" t="n">
-        <v>219.8262629653264</v>
+        <v>198.5238873872782</v>
       </c>
       <c r="AB14" t="n">
-        <v>217.5302460382038</v>
+        <v>196.7630773003276</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.722145223759838e+23</v>
+        <v>7.722130846008157e+23</v>
       </c>
     </row>
     <row r="15">
@@ -1737,88 +1737,88 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1638117193.541134</v>
+        <v>1589371570.917861</v>
       </c>
       <c r="C15" t="n">
-        <v>189908.4596650204</v>
+        <v>189932.5779103255</v>
       </c>
       <c r="D15" t="n">
-        <v>97320.1388531992</v>
+        <v>97544.14316494722</v>
       </c>
       <c r="E15" t="n">
-        <v>300</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="F15" t="n">
         <v>2555</v>
       </c>
       <c r="G15" t="n">
-        <v>165831.110548206</v>
+        <v>165421.888779911</v>
       </c>
       <c r="H15" t="n">
-        <v>960784199.92904</v>
+        <v>936666315.5053029</v>
       </c>
       <c r="I15" t="n">
-        <v>1874876925.614664</v>
+        <v>1823848107.412613</v>
       </c>
       <c r="J15" t="n">
-        <v>7999.99999999535</v>
+        <v>8000.000000000638</v>
       </c>
       <c r="K15" t="n">
-        <v>274.8790335142094</v>
+        <v>207.2495009451386</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>219.7157319219104</v>
+        <v>198.4779438349755</v>
       </c>
       <c r="N15" t="n">
-        <v>1113656632.903586</v>
+        <v>1061222029.166745</v>
       </c>
       <c r="O15" t="n">
-        <v>274.7257797393609</v>
+        <v>207.0790969421676</v>
       </c>
       <c r="P15" t="n">
-        <v>278.7227330279356</v>
+        <v>211.0851139490341</v>
       </c>
       <c r="Q15" t="n">
-        <v>-8000.000000002272</v>
+        <v>-7999.999997552668</v>
       </c>
       <c r="R15" t="n">
         <v>-0</v>
       </c>
       <c r="S15" t="n">
-        <v>330.9045740630626</v>
+        <v>349.3876689046999</v>
       </c>
       <c r="T15" t="n">
-        <v>-2067614138.118566</v>
+        <v>-2633571431.715449</v>
       </c>
       <c r="U15" t="n">
-        <v>-229122.4390501677</v>
+        <v>-232698.003550357</v>
       </c>
       <c r="V15" t="n">
-        <v>-2991930284.855678</v>
+        <v>-3567109235.752931</v>
       </c>
       <c r="W15" t="n">
-        <v>510552309.8288597</v>
+        <v>1305518767.674893</v>
       </c>
       <c r="X15" t="n">
-        <v>-121855.1556319831</v>
+        <v>-119584.0705047511</v>
       </c>
       <c r="Y15" t="n">
-        <v>39906.16819744471</v>
+        <v>85217.35518823606</v>
       </c>
       <c r="Z15" t="n">
-        <v>-1620572903.432771</v>
+        <v>-1834390583.485327</v>
       </c>
       <c r="AA15" t="n">
-        <v>219.8248252072966</v>
+        <v>198.5547252537775</v>
       </c>
       <c r="AB15" t="n">
-        <v>217.5270271099355</v>
+        <v>196.7845027483345</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.722145223759902e+23</v>
+        <v>7.722196546008171e+23</v>
       </c>
     </row>
     <row r="16">
@@ -1826,88 +1826,88 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1638117211.293392</v>
+        <v>1589718087.423326</v>
       </c>
       <c r="C16" t="n">
-        <v>189908.4596746773</v>
+        <v>189932.2229085054</v>
       </c>
       <c r="D16" t="n">
-        <v>97320.14079189778</v>
+        <v>97544.49528353708</v>
       </c>
       <c r="E16" t="n">
-        <v>300</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="F16" t="n">
         <v>2920</v>
       </c>
       <c r="G16" t="n">
-        <v>165831.1087842043</v>
+        <v>165422.767280814</v>
       </c>
       <c r="H16" t="n">
-        <v>960784239.6947923</v>
+        <v>936868830.3409517</v>
       </c>
       <c r="I16" t="n">
-        <v>1874876965.964002</v>
+        <v>1824232431.651781</v>
       </c>
       <c r="J16" t="n">
-        <v>8000.000000003335</v>
+        <v>8000.000000002169</v>
       </c>
       <c r="K16" t="n">
-        <v>274.8790877925294</v>
+        <v>207.7565424205793</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>219.7152772337082</v>
+        <v>198.4978330863455</v>
       </c>
       <c r="N16" t="n">
-        <v>1113656674.268987</v>
+        <v>1061617479.017598</v>
       </c>
       <c r="O16" t="n">
-        <v>274.7258338607172</v>
+        <v>207.5860954567081</v>
       </c>
       <c r="P16" t="n">
-        <v>278.7227872275917</v>
+        <v>211.5921264561523</v>
       </c>
       <c r="Q16" t="n">
-        <v>-7999.999999987302</v>
+        <v>-7999.999994835356</v>
       </c>
       <c r="R16" t="n">
         <v>-0</v>
       </c>
       <c r="S16" t="n">
-        <v>330.8894127783896</v>
+        <v>348.5547094895373</v>
       </c>
       <c r="T16" t="n">
-        <v>-2067124295.033643</v>
+        <v>-2607719840.877689</v>
       </c>
       <c r="U16" t="n">
-        <v>-229116.1497899142</v>
+        <v>-232649.1276411314</v>
       </c>
       <c r="V16" t="n">
-        <v>-2991418291.571064</v>
+        <v>-3541381224.349698</v>
       </c>
       <c r="W16" t="n">
-        <v>510008674.8249803</v>
+        <v>1264570188.707194</v>
       </c>
       <c r="X16" t="n">
-        <v>-121856.3374973134</v>
+        <v>-119631.9712035059</v>
       </c>
       <c r="Y16" t="n">
-        <v>39870.12713869828</v>
+        <v>83159.07317672018</v>
       </c>
       <c r="Z16" t="n">
-        <v>-1620381312.856952</v>
+        <v>-1822952480.238314</v>
       </c>
       <c r="AA16" t="n">
-        <v>219.8244003015253</v>
+        <v>198.5756185006692</v>
       </c>
       <c r="AB16" t="n">
-        <v>217.5260616972888</v>
+        <v>196.7863904593969</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.722145223759843e+23</v>
+        <v>7.722262246008158e+23</v>
       </c>
     </row>
     <row r="17">
@@ -1915,88 +1915,88 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1638117216.279385</v>
+        <v>1589959133.035754</v>
       </c>
       <c r="C17" t="n">
-        <v>189908.4596772102</v>
+        <v>189931.8884376111</v>
       </c>
       <c r="D17" t="n">
-        <v>97320.14129649515</v>
+        <v>97555.06309529691</v>
       </c>
       <c r="E17" t="n">
-        <v>299.9999999999999</v>
+        <v>300</v>
       </c>
       <c r="F17" t="n">
         <v>3285</v>
       </c>
       <c r="G17" t="n">
-        <v>165831.1083296609</v>
+        <v>165413.4307441929</v>
       </c>
       <c r="H17" t="n">
-        <v>960784250.2326373</v>
+        <v>937165190.9256276</v>
       </c>
       <c r="I17" t="n">
-        <v>1874876976.83261</v>
+        <v>1824608584.626112</v>
       </c>
       <c r="J17" t="n">
-        <v>8000.000000002602</v>
+        <v>7999.999999999685</v>
       </c>
       <c r="K17" t="n">
-        <v>274.8791024131549</v>
+        <v>208.2533707633212</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>219.7151529507799</v>
+        <v>198.5044149214568</v>
       </c>
       <c r="N17" t="n">
-        <v>1113656685.411576</v>
+        <v>1062004474.661963</v>
       </c>
       <c r="O17" t="n">
-        <v>274.7258484406128</v>
+        <v>208.0820527555415</v>
       </c>
       <c r="P17" t="n">
-        <v>278.7228018278673</v>
+        <v>212.0885100978581</v>
       </c>
       <c r="Q17" t="n">
-        <v>-7999.999999952247</v>
+        <v>-7999.999887187907</v>
       </c>
       <c r="R17" t="n">
         <v>-0</v>
       </c>
       <c r="S17" t="n">
-        <v>330.884970836517</v>
+        <v>347.1456337222425</v>
       </c>
       <c r="T17" t="n">
-        <v>-2066984560.460172</v>
+        <v>-2563865682.926971</v>
       </c>
       <c r="U17" t="n">
-        <v>-229114.2350763908</v>
+        <v>-232546.864110905</v>
       </c>
       <c r="V17" t="n">
-        <v>-2991271696.001168</v>
+        <v>-3497646381.53588</v>
       </c>
       <c r="W17" t="n">
-        <v>509853931.4965768</v>
+        <v>1197404110.934406</v>
       </c>
       <c r="X17" t="n">
-        <v>-121856.6026267423</v>
+        <v>-119647.9769552768</v>
       </c>
       <c r="Y17" t="n">
-        <v>39859.85844448351</v>
+        <v>79717.34937111507</v>
       </c>
       <c r="Z17" t="n">
-        <v>-1620325350.06749</v>
+        <v>-1802038094.964123</v>
       </c>
       <c r="AA17" t="n">
-        <v>219.8242837465069</v>
+        <v>198.5838799320196</v>
       </c>
       <c r="AB17" t="n">
-        <v>217.5257913644389</v>
+        <v>196.7617002484151</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.722145223759867e+23</v>
+        <v>7.722327946008169e+23</v>
       </c>
     </row>
     <row r="18">
@@ -2004,88 +2004,88 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1638117217.46579</v>
+        <v>1590155143.408452</v>
       </c>
       <c r="C18" t="n">
-        <v>189908.4596778434</v>
+        <v>189931.5743618137</v>
       </c>
       <c r="D18" t="n">
-        <v>97320.1414187867</v>
+        <v>97569.46869459924</v>
       </c>
       <c r="E18" t="n">
-        <v>300</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="F18" t="n">
         <v>3650</v>
       </c>
       <c r="G18" t="n">
-        <v>165831.1082034205</v>
+        <v>165400.2464681139</v>
       </c>
       <c r="H18" t="n">
-        <v>960784252.8667833</v>
+        <v>937493751.6504065</v>
       </c>
       <c r="I18" t="n">
-        <v>1874876979.623474</v>
+        <v>1824975742.44733</v>
       </c>
       <c r="J18" t="n">
-        <v>8000.000000001689</v>
+        <v>8000.000000000065</v>
       </c>
       <c r="K18" t="n">
-        <v>274.8791061680848</v>
+        <v>208.7386284689403</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>219.7151212030556</v>
+        <v>198.4949096081891</v>
       </c>
       <c r="N18" t="n">
-        <v>1113656688.272867</v>
+        <v>1062382171.566087</v>
       </c>
       <c r="O18" t="n">
-        <v>274.7258521849917</v>
+        <v>208.5661288743289</v>
       </c>
       <c r="P18" t="n">
-        <v>278.7228055771854</v>
+        <v>212.5731674480164</v>
       </c>
       <c r="Q18" t="n">
-        <v>-7999.999999833798</v>
+        <v>-7999.999745113344</v>
       </c>
       <c r="R18" t="n">
         <v>-0</v>
       </c>
       <c r="S18" t="n">
-        <v>330.8837788911245</v>
+        <v>345.051983996747</v>
       </c>
       <c r="T18" t="n">
-        <v>-2066947062.164719</v>
+        <v>-2498499770.933211</v>
       </c>
       <c r="U18" t="n">
-        <v>-229113.7212554378</v>
+        <v>-232346.0332575663</v>
       </c>
       <c r="V18" t="n">
-        <v>-2991232356.504039</v>
+        <v>-3432232452.756209</v>
       </c>
       <c r="W18" t="n">
-        <v>509812479.729844</v>
+        <v>1101561441.48507</v>
       </c>
       <c r="X18" t="n">
-        <v>-121856.6534288979</v>
+        <v>-119566.7868163683</v>
       </c>
       <c r="Y18" t="n">
-        <v>39857.10533872909</v>
+        <v>74671.77157887771</v>
       </c>
       <c r="Z18" t="n">
-        <v>-1620309966.918197</v>
+        <v>-1768743663.1602</v>
       </c>
       <c r="AA18" t="n">
-        <v>219.8242538624832</v>
+        <v>198.5770346279812</v>
       </c>
       <c r="AB18" t="n">
-        <v>217.5257203565076</v>
+        <v>196.7038792303644</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.722145223759894e+23</v>
+        <v>7.722393646008166e+23</v>
       </c>
     </row>
     <row r="19">
@@ -2093,13 +2093,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1638117217.898922</v>
+        <v>1590334481.421757</v>
       </c>
       <c r="C19" t="n">
-        <v>189908.4596780017</v>
+        <v>189931.2789529333</v>
       </c>
       <c r="D19" t="n">
-        <v>97320.14146176702</v>
+        <v>97584.85392891795</v>
       </c>
       <c r="E19" t="n">
         <v>300</v>
@@ -2108,73 +2108,73 @@
         <v>4015</v>
       </c>
       <c r="G19" t="n">
-        <v>165831.1081841415</v>
+        <v>165386.0708758022</v>
       </c>
       <c r="H19" t="n">
-        <v>960784253.6567314</v>
+        <v>937827605.3050951</v>
       </c>
       <c r="I19" t="n">
-        <v>1874876980.338598</v>
+        <v>1825334943.85639</v>
       </c>
       <c r="J19" t="n">
-        <v>8000.000000001288</v>
+        <v>8000.000000002214</v>
       </c>
       <c r="K19" t="n">
-        <v>274.8791071297635</v>
+        <v>209.2135603839401</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>219.7151134925203</v>
+        <v>198.4674712243615</v>
       </c>
       <c r="N19" t="n">
-        <v>1113656689.006055</v>
+        <v>1062751641.287902</v>
       </c>
       <c r="O19" t="n">
-        <v>274.7258531440251</v>
+        <v>209.039800489409</v>
       </c>
       <c r="P19" t="n">
-        <v>278.7228065379546</v>
+        <v>213.0474598261283</v>
       </c>
       <c r="Q19" t="n">
-        <v>-7999.999999990996</v>
+        <v>-7999.999818071688</v>
       </c>
       <c r="R19" t="n">
         <v>-0</v>
       </c>
       <c r="S19" t="n">
-        <v>330.8834753236275</v>
+        <v>342.2570766930215</v>
       </c>
       <c r="T19" t="n">
-        <v>-2066937512.084009</v>
+        <v>-2410902202.501137</v>
       </c>
       <c r="U19" t="n">
-        <v>-229113.5904004529</v>
+        <v>-231976.2255601569</v>
       </c>
       <c r="V19" t="n">
-        <v>-2991222337.520918</v>
+        <v>-3344103448.776639</v>
       </c>
       <c r="W19" t="n">
-        <v>509801918.643338</v>
+        <v>979694805.9846872</v>
       </c>
       <c r="X19" t="n">
-        <v>-121856.6621022769</v>
+        <v>-119310.5709873801</v>
       </c>
       <c r="Y19" t="n">
-        <v>39856.40307408733</v>
+        <v>68016.86128854171</v>
       </c>
       <c r="Z19" t="n">
-        <v>-1620305959.999419</v>
+        <v>-1721583887.975235</v>
       </c>
       <c r="AA19" t="n">
-        <v>219.8242465775274</v>
+        <v>198.5534175590287</v>
       </c>
       <c r="AB19" t="n">
-        <v>217.5257025971516</v>
+        <v>196.6082617322849</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.72214522375985e+23</v>
+        <v>7.722459346008172e+23</v>
       </c>
     </row>
     <row r="20">
@@ -2182,13 +2182,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1638117217.931401</v>
+        <v>1590534608.274212</v>
       </c>
       <c r="C20" t="n">
-        <v>189908.4596780017</v>
+        <v>189930.9756235412</v>
       </c>
       <c r="D20" t="n">
-        <v>97320.14145939036</v>
+        <v>97597.42187597034</v>
       </c>
       <c r="E20" t="n">
         <v>300</v>
@@ -2197,73 +2197,73 @@
         <v>4380</v>
       </c>
       <c r="G20" t="n">
-        <v>165831.1081839399</v>
+        <v>165374.6725774235</v>
       </c>
       <c r="H20" t="n">
-        <v>960784253.6534817</v>
+        <v>938130946.2632189</v>
       </c>
       <c r="I20" t="n">
-        <v>1874876980.37805</v>
+        <v>1825687299.4633</v>
       </c>
       <c r="J20" t="n">
-        <v>8000.000000000897</v>
+        <v>7999.999999999058</v>
       </c>
       <c r="K20" t="n">
-        <v>274.8791071828959</v>
+        <v>209.6796252360618</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>219.7151124567153</v>
+        <v>198.4216714545419</v>
       </c>
       <c r="N20" t="n">
-        <v>1113656689.04654</v>
+        <v>1063114120.336181</v>
       </c>
       <c r="O20" t="n">
-        <v>274.7258531972403</v>
+        <v>209.5048333481955</v>
       </c>
       <c r="P20" t="n">
-        <v>278.7228065910738</v>
+        <v>213.5129996951586</v>
       </c>
       <c r="Q20" t="n">
-        <v>-7999.999999998582</v>
+        <v>-8000.000000002105</v>
       </c>
       <c r="R20" t="n">
         <v>-0</v>
       </c>
       <c r="S20" t="n">
-        <v>330.8834194888537</v>
+        <v>338.8508966681545</v>
       </c>
       <c r="T20" t="n">
-        <v>-2066935755.814686</v>
+        <v>-2303594133.283162</v>
       </c>
       <c r="U20" t="n">
-        <v>-229113.5663360299</v>
+        <v>-231345.0606384476</v>
       </c>
       <c r="V20" t="n">
-        <v>-2991220495.013394</v>
+        <v>-3235324014.641018</v>
       </c>
       <c r="W20" t="n">
-        <v>509799965.6302639</v>
+        <v>839508830.619045</v>
       </c>
       <c r="X20" t="n">
-        <v>-121856.647932081</v>
+        <v>-118794.4171660013</v>
       </c>
       <c r="Y20" t="n">
-        <v>39856.2732364403</v>
+        <v>60005.92859593056</v>
       </c>
       <c r="Z20" t="n">
-        <v>-1620304908.327485</v>
+        <v>-1661037271.729815</v>
       </c>
       <c r="AA20" t="n">
-        <v>219.824245578425</v>
+        <v>198.512855569314</v>
       </c>
       <c r="AB20" t="n">
-        <v>217.5256997051371</v>
+        <v>196.4732483518833</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.72214522375987e+23</v>
+        <v>7.722525046008172e+23</v>
       </c>
     </row>
     <row r="21">
@@ -2271,88 +2271,88 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1638117217.931015</v>
+        <v>1590769982.449834</v>
       </c>
       <c r="C21" t="n">
-        <v>189908.4596780017</v>
+        <v>189930.675222389</v>
       </c>
       <c r="D21" t="n">
-        <v>97320.14146958216</v>
+        <v>97605.82806961214</v>
       </c>
       <c r="E21" t="n">
-        <v>299.9999999999999</v>
+        <v>300</v>
       </c>
       <c r="F21" t="n">
         <v>4745</v>
       </c>
       <c r="G21" t="n">
-        <v>165831.1081766921</v>
+        <v>165367.4145576604</v>
       </c>
       <c r="H21" t="n">
-        <v>960784253.7958508</v>
+        <v>938391678.9234203</v>
       </c>
       <c r="I21" t="n">
-        <v>1874876980.459531</v>
+        <v>1826034515.163165</v>
       </c>
       <c r="J21" t="n">
-        <v>8000.00000000009</v>
+        <v>7999.999999999311</v>
       </c>
       <c r="K21" t="n">
-        <v>274.8791072929157</v>
+        <v>210.1389354624419</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>219.7151116480776</v>
+        <v>198.3594527784662</v>
       </c>
       <c r="N21" t="n">
-        <v>1113656689.130156</v>
+        <v>1063471318.361624</v>
       </c>
       <c r="O21" t="n">
-        <v>274.7258533065377</v>
+        <v>209.9634493837185</v>
       </c>
       <c r="P21" t="n">
-        <v>278.7228067007828</v>
+        <v>213.9719547679354</v>
       </c>
       <c r="Q21" t="n">
-        <v>-7999.999999994081</v>
+        <v>-8000.000000000977</v>
       </c>
       <c r="R21" t="n">
         <v>-0</v>
       </c>
       <c r="S21" t="n">
-        <v>330.8833913193802</v>
+        <v>335.0008636365346</v>
       </c>
       <c r="T21" t="n">
-        <v>-2066934869.55402</v>
+        <v>-2181782473.44368</v>
       </c>
       <c r="U21" t="n">
-        <v>-229113.55419194</v>
+        <v>-230345.0350278211</v>
       </c>
       <c r="V21" t="n">
-        <v>-2991219565.236799</v>
+        <v>-3110547035.437891</v>
       </c>
       <c r="W21" t="n">
-        <v>509799006.9593953</v>
+        <v>691115868.4544272</v>
       </c>
       <c r="X21" t="n">
-        <v>-121856.6575234664</v>
+        <v>-117948.3922012402</v>
       </c>
       <c r="Y21" t="n">
-        <v>39856.20955744756</v>
+        <v>51059.41368158374</v>
       </c>
       <c r="Z21" t="n">
-        <v>-1620304726.572562</v>
+        <v>-1589634209.061807</v>
       </c>
       <c r="AA21" t="n">
-        <v>219.8242448150814</v>
+        <v>198.4574253447371</v>
       </c>
       <c r="AB21" t="n">
-        <v>217.5256979871159</v>
+        <v>196.3011980531276</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.722145223759886e+23</v>
+        <v>7.722590746008175e+23</v>
       </c>
     </row>
     <row r="22">
@@ -2360,88 +2360,88 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1638117218.006951</v>
+        <v>1591032744.308218</v>
       </c>
       <c r="C22" t="n">
-        <v>189908.4596780021</v>
+        <v>189930.3888430538</v>
       </c>
       <c r="D22" t="n">
-        <v>97320.14147278026</v>
+        <v>97611.03084252845</v>
       </c>
       <c r="E22" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="F22" t="n">
         <v>5110</v>
       </c>
       <c r="G22" t="n">
-        <v>165831.1081783631</v>
+        <v>165363.3547061392</v>
       </c>
       <c r="H22" t="n">
-        <v>960784253.8622701</v>
+        <v>938619659.8099403</v>
       </c>
       <c r="I22" t="n">
-        <v>1874876980.527541</v>
+        <v>1826378016.504578</v>
       </c>
       <c r="J22" t="n">
-        <v>7999.999999999429</v>
+        <v>7999.999999998749</v>
       </c>
       <c r="K22" t="n">
-        <v>274.8791073844236</v>
+        <v>210.5933303723435</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>219.7151113535055</v>
+        <v>198.2856465928226</v>
       </c>
       <c r="N22" t="n">
-        <v>1113656689.199945</v>
+        <v>1063824656.619754</v>
       </c>
       <c r="O22" t="n">
-        <v>274.7258533979727</v>
+        <v>210.4174105946121</v>
       </c>
       <c r="P22" t="n">
-        <v>278.7228067923469</v>
+        <v>214.4261257185132</v>
       </c>
       <c r="Q22" t="n">
-        <v>-8000.000000003799</v>
+        <v>-8000.000209607115</v>
       </c>
       <c r="R22" t="n">
         <v>-0</v>
       </c>
       <c r="S22" t="n">
-        <v>330.8833824104501</v>
+        <v>330.9321008553354</v>
       </c>
       <c r="T22" t="n">
-        <v>-2066934589.231713</v>
+        <v>-2052397232.242788</v>
       </c>
       <c r="U22" t="n">
-        <v>-229113.5503510121</v>
+        <v>-228889.7261175289</v>
       </c>
       <c r="V22" t="n">
-        <v>-2991219271.152187</v>
+        <v>-2976230850.854792</v>
       </c>
       <c r="W22" t="n">
-        <v>509798704.5826982</v>
+        <v>545235534.5537626</v>
       </c>
       <c r="X22" t="n">
-        <v>-121856.6604047542</v>
+        <v>-116755.8581281683</v>
       </c>
       <c r="Y22" t="n">
-        <v>39856.18932480142</v>
+        <v>41733.09996119163</v>
       </c>
       <c r="Z22" t="n">
-        <v>-1620304659.96194</v>
+        <v>-1511746874.877178</v>
       </c>
       <c r="AA22" t="n">
-        <v>219.8242445419915</v>
+        <v>198.3920182463658</v>
       </c>
       <c r="AB22" t="n">
-        <v>217.5256973974645</v>
+        <v>196.0997590400325</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.722145223759855e+23</v>
+        <v>7.722656446008165e+23</v>
       </c>
     </row>
     <row r="23">
@@ -2449,13 +2449,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1638117218.097097</v>
+        <v>1591325507.353896</v>
       </c>
       <c r="C23" t="n">
-        <v>189908.4596780018</v>
+        <v>189930.1153743653</v>
       </c>
       <c r="D23" t="n">
-        <v>97320.14147653591</v>
+        <v>97612.85265836223</v>
       </c>
       <c r="E23" t="n">
         <v>300</v>
@@ -2464,73 +2464,73 @@
         <v>5475</v>
       </c>
       <c r="G23" t="n">
-        <v>165831.1081831974</v>
+        <v>165362.6731648767</v>
       </c>
       <c r="H23" t="n">
-        <v>960784253.9242041</v>
+        <v>938813671.9855419</v>
       </c>
       <c r="I23" t="n">
-        <v>1874876980.576048</v>
+        <v>1826718782.283073</v>
       </c>
       <c r="J23" t="n">
-        <v>7999.999999998937</v>
+        <v>8000.000000000723</v>
       </c>
       <c r="K23" t="n">
-        <v>274.8791074495533</v>
+        <v>211.0440934118404</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>219.7151112925947</v>
+        <v>198.2082100949291</v>
       </c>
       <c r="N23" t="n">
-        <v>1113656689.249725</v>
+        <v>1064175142.990677</v>
       </c>
       <c r="O23" t="n">
-        <v>274.7258534631389</v>
+        <v>210.8680147840964</v>
       </c>
       <c r="P23" t="n">
-        <v>278.7228068576648</v>
+        <v>214.8768031839932</v>
       </c>
       <c r="Q23" t="n">
-        <v>-8000.000000000661</v>
+        <v>-8000.000105826227</v>
       </c>
       <c r="R23" t="n">
         <v>-0</v>
       </c>
       <c r="S23" t="n">
-        <v>330.8833794108141</v>
+        <v>326.891037851399</v>
       </c>
       <c r="T23" t="n">
-        <v>-2066934494.870852</v>
+        <v>-1923153718.307603</v>
       </c>
       <c r="U23" t="n">
-        <v>-229113.5490579778</v>
+        <v>-226951.4220003543</v>
       </c>
       <c r="V23" t="n">
-        <v>-2991219172.157664</v>
+        <v>-2839881358.514618</v>
       </c>
       <c r="W23" t="n">
-        <v>509798601.883175</v>
+        <v>410809902.3611126</v>
       </c>
       <c r="X23" t="n">
-        <v>-121856.6613154026</v>
+        <v>-115276.7867264485</v>
       </c>
       <c r="Y23" t="n">
-        <v>39856.18238905466</v>
+        <v>32596.31123033769</v>
       </c>
       <c r="Z23" t="n">
-        <v>-1620304634.571779</v>
+        <v>-1433135485.626066</v>
       </c>
       <c r="AA23" t="n">
-        <v>219.8242444882033</v>
+        <v>198.3246165842908</v>
       </c>
       <c r="AB23" t="n">
-        <v>217.5256972328199</v>
+        <v>195.8819994120124</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.722145223759863e+23</v>
+        <v>7.722722146008168e+23</v>
       </c>
     </row>
     <row r="24">
@@ -2538,88 +2538,88 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1638117218.168504</v>
+        <v>1591668089.832984</v>
       </c>
       <c r="C24" t="n">
-        <v>189908.4596781601</v>
+        <v>189929.8536979505</v>
       </c>
       <c r="D24" t="n">
-        <v>97320.1414798062</v>
+        <v>97609.34329381776</v>
       </c>
       <c r="E24" t="n">
-        <v>300</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="F24" t="n">
         <v>5840</v>
       </c>
       <c r="G24" t="n">
-        <v>165831.1081875783</v>
+        <v>165367.3217849271</v>
       </c>
       <c r="H24" t="n">
-        <v>960784253.9729849</v>
+        <v>938955534.3646291</v>
       </c>
       <c r="I24" t="n">
-        <v>1874876980.609802</v>
+        <v>1827057964.432094</v>
       </c>
       <c r="J24" t="n">
-        <v>8000.000000005286</v>
+        <v>8000.000000000175</v>
       </c>
       <c r="K24" t="n">
-        <v>274.879107492725</v>
+        <v>211.492666258021</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>219.7151112982054</v>
+        <v>198.138034552082</v>
       </c>
       <c r="N24" t="n">
-        <v>1113656689.283689</v>
+        <v>1064523962.960664</v>
       </c>
       <c r="O24" t="n">
-        <v>274.7258535063512</v>
+        <v>211.3168618406629</v>
       </c>
       <c r="P24" t="n">
-        <v>278.7228069010092</v>
+        <v>215.3255083218947</v>
       </c>
       <c r="Q24" t="n">
-        <v>-8000.000000000586</v>
+        <v>-8000.000062892424</v>
       </c>
       <c r="R24" t="n">
         <v>-0</v>
       </c>
       <c r="S24" t="n">
-        <v>330.8833782839198</v>
+        <v>323.1115483634606</v>
       </c>
       <c r="T24" t="n">
-        <v>-2066934459.44332</v>
+        <v>-1801702250.061433</v>
       </c>
       <c r="U24" t="n">
-        <v>-229113.5485725754</v>
+        <v>-224595.247611473</v>
       </c>
       <c r="V24" t="n">
-        <v>-2991219134.990213</v>
+        <v>-2709360493.976298</v>
       </c>
       <c r="W24" t="n">
-        <v>509798563.8270675</v>
+        <v>294471855.7156073</v>
       </c>
       <c r="X24" t="n">
-        <v>-121856.6616465555</v>
+        <v>-113699.3627728762</v>
       </c>
       <c r="Y24" t="n">
-        <v>39856.17981246336</v>
+        <v>24195.17818459093</v>
       </c>
       <c r="Z24" t="n">
-        <v>-1620304624.939273</v>
+        <v>-1360535636.268843</v>
       </c>
       <c r="AA24" t="n">
-        <v>219.8242444963321</v>
+        <v>198.265651702537</v>
       </c>
       <c r="AB24" t="n">
-        <v>217.5256971996093</v>
+        <v>195.6667923727249</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.722145223759881e+23</v>
+        <v>7.72278784600816e+23</v>
       </c>
     </row>
     <row r="25">
@@ -2627,13 +2627,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1638117218.219807</v>
+        <v>1592032408.47639</v>
       </c>
       <c r="C25" t="n">
-        <v>189908.4596780018</v>
+        <v>189929.603388353</v>
       </c>
       <c r="D25" t="n">
-        <v>97320.14148243603</v>
+        <v>97603.46363379409</v>
       </c>
       <c r="E25" t="n">
         <v>300</v>
@@ -2642,73 +2642,73 @@
         <v>6205</v>
       </c>
       <c r="G25" t="n">
-        <v>165831.1081909532</v>
+        <v>165374.3442756676</v>
       </c>
       <c r="H25" t="n">
-        <v>960784254.0094813</v>
+        <v>939073910.6921864</v>
       </c>
       <c r="I25" t="n">
-        <v>1874876980.628798</v>
+        <v>1827395957.466103</v>
       </c>
       <c r="J25" t="n">
-        <v>7999.999999998416</v>
+        <v>7999.999999999601</v>
       </c>
       <c r="K25" t="n">
-        <v>274.8791075202718</v>
+        <v>211.9396900791303</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>219.715111315626</v>
+        <v>198.087139452859</v>
       </c>
       <c r="N25" t="n">
-        <v>1113656689.303858</v>
+        <v>1064871522.68693</v>
       </c>
       <c r="O25" t="n">
-        <v>274.7258535339254</v>
+        <v>211.7643526582884</v>
       </c>
       <c r="P25" t="n">
-        <v>278.7228069286895</v>
+        <v>215.7727615555959</v>
       </c>
       <c r="Q25" t="n">
-        <v>-8000.000000000031</v>
+        <v>-8000.000161288519</v>
       </c>
       <c r="R25" t="n">
         <v>-0</v>
       </c>
       <c r="S25" t="n">
-        <v>330.8833778240883</v>
+        <v>319.809683861146</v>
       </c>
       <c r="T25" t="n">
-        <v>-2066934444.998419</v>
+        <v>-1695101627.108495</v>
       </c>
       <c r="U25" t="n">
-        <v>-229113.5483746681</v>
+        <v>-222020.8566100854</v>
       </c>
       <c r="V25" t="n">
-        <v>-2991219119.835659</v>
+        <v>-2592545501.218244</v>
       </c>
       <c r="W25" t="n">
-        <v>509798548.4828541</v>
+        <v>200361405.5375068</v>
       </c>
       <c r="X25" t="n">
-        <v>-121856.6617821733</v>
+        <v>-112332.5450128678</v>
       </c>
       <c r="Y25" t="n">
-        <v>39856.17877539066</v>
+        <v>17003.62183724355</v>
       </c>
       <c r="Z25" t="n">
-        <v>-1620304621.166251</v>
+        <v>-1301014405.99142</v>
       </c>
       <c r="AA25" t="n">
-        <v>219.8242445147134</v>
+        <v>198.2262001509494</v>
       </c>
       <c r="AB25" t="n">
-        <v>217.5256972014721</v>
+        <v>195.4768732146454</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.722145223759869e+23</v>
+        <v>7.722853546008171e+23</v>
       </c>
     </row>
     <row r="26">
@@ -2716,13 +2716,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1638117218.254619</v>
+        <v>1592386451.442462</v>
       </c>
       <c r="C26" t="n">
-        <v>189908.4596780018</v>
+        <v>189929.343107985</v>
       </c>
       <c r="D26" t="n">
-        <v>97320.14148439163</v>
+        <v>97598.58699663061</v>
       </c>
       <c r="E26" t="n">
         <v>300</v>
@@ -2731,73 +2731,73 @@
         <v>6570</v>
       </c>
       <c r="G26" t="n">
-        <v>165831.1081933456</v>
+        <v>165380.3505261834</v>
       </c>
       <c r="H26" t="n">
-        <v>960784254.0353434</v>
+        <v>939201582.3147902</v>
       </c>
       <c r="I26" t="n">
-        <v>1874876980.641592</v>
+        <v>1827733226.413528</v>
       </c>
       <c r="J26" t="n">
-        <v>7999.999999998287</v>
+        <v>7999.999999999884</v>
       </c>
       <c r="K26" t="n">
-        <v>274.8791075374027</v>
+        <v>212.3860475716484</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>219.7151113304238</v>
+        <v>198.066143634487</v>
       </c>
       <c r="N26" t="n">
-        <v>1113656689.316987</v>
+        <v>1065218377.411126</v>
       </c>
       <c r="O26" t="n">
-        <v>274.7258535510722</v>
+        <v>212.2110953521363</v>
       </c>
       <c r="P26" t="n">
-        <v>278.7228069459153</v>
+        <v>216.2193071478517</v>
       </c>
       <c r="Q26" t="n">
-        <v>-7999.999999996508</v>
+        <v>-8000.000024512998</v>
       </c>
       <c r="R26" t="n">
         <v>-0</v>
       </c>
       <c r="S26" t="n">
-        <v>330.8833776194696</v>
+        <v>317.1556541501147</v>
       </c>
       <c r="T26" t="n">
-        <v>-2066934438.575157</v>
+        <v>-1609157684.702406</v>
       </c>
       <c r="U26" t="n">
-        <v>-229113.5482865909</v>
+        <v>-219539.5732530152</v>
       </c>
       <c r="V26" t="n">
-        <v>-2991219113.096411</v>
+        <v>-2496566887.698217</v>
       </c>
       <c r="W26" t="n">
-        <v>509798541.6916575</v>
+        <v>129970526.4646891</v>
       </c>
       <c r="X26" t="n">
-        <v>-121856.6618426993</v>
+        <v>-111512.456204979</v>
       </c>
       <c r="Y26" t="n">
-        <v>39856.17831821607</v>
+        <v>11347.76711530339</v>
       </c>
       <c r="Z26" t="n">
-        <v>-1620304619.567823</v>
+        <v>-1260334977.083254</v>
       </c>
       <c r="AA26" t="n">
-        <v>219.8242445298939</v>
+        <v>198.2151646384432</v>
       </c>
       <c r="AB26" t="n">
-        <v>217.5256972094852</v>
+        <v>195.3345526597395</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.722145223759861e+23</v>
+        <v>7.722919246008163e+23</v>
       </c>
     </row>
     <row r="27">
@@ -2805,88 +2805,88 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1638117218.277378</v>
+        <v>1592702272.927471</v>
       </c>
       <c r="C27" t="n">
-        <v>189908.4596780018</v>
+        <v>189929.078598869</v>
       </c>
       <c r="D27" t="n">
-        <v>97320.14148577137</v>
+        <v>97597.61373250408</v>
       </c>
       <c r="E27" t="n">
-        <v>300</v>
+        <v>299.9999999999999</v>
       </c>
       <c r="F27" t="n">
         <v>6935</v>
       </c>
       <c r="G27" t="n">
-        <v>165831.1081949603</v>
+        <v>165382.4521263812</v>
       </c>
       <c r="H27" t="n">
-        <v>960784254.0529563</v>
+        <v>939366460.1691962</v>
       </c>
       <c r="I27" t="n">
-        <v>1874876980.649382</v>
+        <v>1828069757.174388</v>
       </c>
       <c r="J27" t="n">
-        <v>7999.999999998214</v>
+        <v>7999.99999999702</v>
       </c>
       <c r="K27" t="n">
-        <v>274.8791075478274</v>
+        <v>212.8318015675921</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>219.7151113405452</v>
+        <v>198.0815340327314</v>
       </c>
       <c r="N27" t="n">
-        <v>1113656689.324981</v>
+        <v>1065564491.59071</v>
       </c>
       <c r="O27" t="n">
-        <v>274.7258535615055</v>
+        <v>212.6569176171267</v>
       </c>
       <c r="P27" t="n">
-        <v>278.7228069564043</v>
+        <v>216.6650899144196</v>
       </c>
       <c r="Q27" t="n">
-        <v>-7999.999999995691</v>
+        <v>-7999.999986114723</v>
       </c>
       <c r="R27" t="n">
         <v>-0</v>
       </c>
       <c r="S27" t="n">
-        <v>330.8833775206889</v>
+        <v>315.2595536221831</v>
       </c>
       <c r="T27" t="n">
-        <v>-2066934435.476786</v>
+        <v>-1547641710.218041</v>
       </c>
       <c r="U27" t="n">
-        <v>-229113.5482441313</v>
+        <v>-217510.0418002546</v>
       </c>
       <c r="V27" t="n">
-        <v>-2991219109.845674</v>
+        <v>-2426746940.628149</v>
       </c>
       <c r="W27" t="n">
-        <v>509798538.4140989</v>
+        <v>82573098.35765569</v>
       </c>
       <c r="X27" t="n">
-        <v>-121856.6618712363</v>
+        <v>-111531.1134685111</v>
       </c>
       <c r="Y27" t="n">
-        <v>39856.17809847642</v>
+        <v>7380.649039358756</v>
       </c>
       <c r="Z27" t="n">
-        <v>-1620304618.81542</v>
+        <v>-1242108930.048577</v>
       </c>
       <c r="AA27" t="n">
-        <v>219.8242445401718</v>
+        <v>198.2367515001011</v>
       </c>
       <c r="AB27" t="n">
-        <v>217.5256972163828</v>
+        <v>195.2569973104758</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.722145223759877e+23</v>
+        <v>7.722984946008166e+23</v>
       </c>
     </row>
     <row r="28">
@@ -2894,13 +2894,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1638117218.291818</v>
+        <v>1593064805.981488</v>
       </c>
       <c r="C28" t="n">
-        <v>189908.4596781601</v>
+        <v>189928.8247696689</v>
       </c>
       <c r="D28" t="n">
-        <v>97320.14148670343</v>
+        <v>97591.7468199538</v>
       </c>
       <c r="E28" t="n">
         <v>300</v>
@@ -2909,73 +2909,73 @@
         <v>7300</v>
       </c>
       <c r="G28" t="n">
-        <v>165831.108196012</v>
+        <v>165389.4507199166</v>
       </c>
       <c r="H28" t="n">
-        <v>960784254.0645339</v>
+        <v>939483951.0215138</v>
       </c>
       <c r="I28" t="n">
-        <v>1874876980.655581</v>
+        <v>1828405857.843161</v>
       </c>
       <c r="J28" t="n">
-        <v>8000.000000004835</v>
+        <v>7999.999999999706</v>
       </c>
       <c r="K28" t="n">
-        <v>274.8791075540283</v>
+        <v>213.2769059206281</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>219.7151113469577</v>
+        <v>198.1330896325355</v>
       </c>
       <c r="N28" t="n">
-        <v>1113656689.330667</v>
+        <v>1065910126.475992</v>
       </c>
       <c r="O28" t="n">
-        <v>274.7258535677107</v>
+        <v>213.1024877440114</v>
       </c>
       <c r="P28" t="n">
-        <v>278.7228069626471</v>
+        <v>217.1104230012401</v>
       </c>
       <c r="Q28" t="n">
-        <v>-7999.999999998867</v>
+        <v>-8000.000001571987</v>
       </c>
       <c r="R28" t="n">
         <v>-0</v>
       </c>
       <c r="S28" t="n">
-        <v>330.883377469649</v>
+        <v>314.1395602261899</v>
       </c>
       <c r="T28" t="n">
-        <v>-2066934433.877684</v>
+        <v>-1511283352.636782</v>
       </c>
       <c r="U28" t="n">
-        <v>-229113.5482223092</v>
+        <v>-216200.6168383821</v>
       </c>
       <c r="V28" t="n">
-        <v>-2991219108.16829</v>
+        <v>-2384994967.05651</v>
       </c>
       <c r="W28" t="n">
-        <v>509798536.7169437</v>
+        <v>55300529.34467326</v>
       </c>
       <c r="X28" t="n">
-        <v>-121856.6618853571</v>
+        <v>-112437.873331117</v>
       </c>
       <c r="Y28" t="n">
-        <v>39856.17798504823</v>
+        <v>5032.403613351979</v>
       </c>
       <c r="Z28" t="n">
-        <v>-1620304618.426487</v>
+        <v>-1245851092.523045</v>
       </c>
       <c r="AA28" t="n">
-        <v>219.824244546651</v>
+        <v>198.2900066510973</v>
       </c>
       <c r="AB28" t="n">
-        <v>217.5256972211461</v>
+        <v>195.2499138855355</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.72214522375989e+23</v>
+        <v>7.723050646008169e+23</v>
       </c>
     </row>
   </sheetData>
